--- a/graphics.xlsx
+++ b/graphics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Desktop\Матмодели (4 сем)\math-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74708352-0842-4E7E-B64B-FECC1BE57CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817FB104-EAD5-4B27-A5EF-2BB8E8916CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A)" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="231">
   <si>
     <t>x2</t>
   </si>
@@ -675,13 +675,67 @@
   </si>
   <si>
     <t>0,753-0,681j</t>
+  </si>
+  <si>
+    <t>А)</t>
+  </si>
+  <si>
+    <t>p1 = 1</t>
+  </si>
+  <si>
+    <t>p3 = 20</t>
+  </si>
+  <si>
+    <t>p4 = 10</t>
+  </si>
+  <si>
+    <t>p5 = 0.6</t>
+  </si>
+  <si>
+    <t>p6 = -5</t>
+  </si>
+  <si>
+    <t>B)</t>
+  </si>
+  <si>
+    <t>p4 = 8</t>
+  </si>
+  <si>
+    <t>p1 = 0.5</t>
+  </si>
+  <si>
+    <t>p5 = 0.8</t>
+  </si>
+  <si>
+    <t>p6 = 0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">p3 → </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>∞</t>
+    </r>
+  </si>
+  <si>
+    <t>p4 = 12</t>
+  </si>
+  <si>
+    <t>p4 = 14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -833,6 +887,21 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1182,9 +1251,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4179,8 +4252,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.9482538637300885E-2"/>
-          <c:y val="8.7917061650737593E-2"/>
+          <c:x val="2.9341267587095522E-2"/>
+          <c:y val="6.4213351310824521E-2"/>
           <c:w val="0.95809901220209825"/>
           <c:h val="0.88600885697535803"/>
         </c:manualLayout>
@@ -14003,16 +14076,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>5601</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>599512</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>57147</xdr:rowOff>
+      <xdr:rowOff>79559</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>593911</xdr:colOff>
+      <xdr:colOff>582705</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>67234</xdr:rowOff>
+      <xdr:rowOff>89646</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14044,16 +14117,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>304799</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:rowOff>10205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>123823</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>43543</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14080,16 +14153,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>61233</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>238124</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>71436</xdr:rowOff>
+      <xdr:rowOff>85044</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14122,15 +14195,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>366712</xdr:colOff>
+      <xdr:colOff>366711</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:rowOff>185736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>61912</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14157,16 +14230,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>445631</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>100012</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>353785</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14198,16 +14271,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>52387</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>404811</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>357187</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14234,16 +14307,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>90487</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>159885</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>56469</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>395287</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14276,15 +14349,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>309561</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:colOff>214311</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14311,16 +14384,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>471487</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14665,15 +14738,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="5" width="16.42578125" customWidth="1"/>
+    <col min="10" max="14" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -14948,7 +15022,7 @@
         <v>0.30199999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-0.4</v>
       </c>
@@ -14965,7 +15039,7 @@
         <v>0.41799999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-0.3</v>
       </c>
@@ -14982,7 +15056,7 @@
         <v>0.52800000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-0.2</v>
       </c>
@@ -14998,8 +15072,28 @@
       <c r="E19">
         <v>0.63400000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-0.1</v>
       </c>
@@ -15016,7 +15110,7 @@
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -15033,7 +15127,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.1</v>
       </c>
@@ -15050,7 +15144,7 @@
         <v>0.92200000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.2</v>
       </c>
@@ -15067,7 +15161,7 @@
         <v>1.0089999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.3</v>
       </c>
@@ -15084,7 +15178,7 @@
         <v>1.091</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.4</v>
       </c>
@@ -15101,7 +15195,7 @@
         <v>1.1679999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.5</v>
       </c>
@@ -15118,7 +15212,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.6</v>
       </c>
@@ -15135,7 +15229,7 @@
         <v>1.306</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.7</v>
       </c>
@@ -15152,7 +15246,7 @@
         <v>1.3680000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.8</v>
       </c>
@@ -15169,7 +15263,7 @@
         <v>1.4239999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.9</v>
       </c>
@@ -15186,7 +15280,7 @@
         <v>1.474</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -15203,7 +15297,7 @@
         <v>1.5169999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1.1000000000000001</v>
       </c>
@@ -15799,6 +15893,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G19:I19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -15806,15 +15903,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="5" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -16089,7 +16190,7 @@
         <v>-1.919</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-0.4</v>
       </c>
@@ -16106,7 +16207,7 @@
         <v>-1.798</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-0.3</v>
       </c>
@@ -16123,7 +16224,7 @@
         <v>-1.6759999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-0.2</v>
       </c>
@@ -16140,7 +16241,7 @@
         <v>-1.5529999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-0.1</v>
       </c>
@@ -16157,7 +16258,7 @@
         <v>-1.4279999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -16174,7 +16275,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.1</v>
       </c>
@@ -16191,7 +16292,7 @@
         <v>-1.167</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.2</v>
       </c>
@@ -16208,7 +16309,7 @@
         <v>-1.0209999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.3</v>
       </c>
@@ -16225,7 +16326,7 @@
         <v>-0.83499999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.4</v>
       </c>
@@ -16242,7 +16343,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.5</v>
       </c>
@@ -16259,7 +16360,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.6</v>
       </c>
@@ -16276,7 +16377,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.7</v>
       </c>
@@ -16293,7 +16394,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.8</v>
       </c>
@@ -16309,8 +16410,11 @@
       <c r="E29" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J29" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.9</v>
       </c>
@@ -16326,8 +16430,28 @@
       <c r="E30" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I30" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -16344,7 +16468,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1.1000000000000001</v>
       </c>
@@ -16940,6 +17064,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I30:K30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -16947,10 +17074,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17230,7 +17357,7 @@
         <v>-1.925</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-0.4</v>
       </c>
@@ -17247,7 +17374,7 @@
         <v>-1.802</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-0.3</v>
       </c>
@@ -17264,7 +17391,7 @@
         <v>-1.6779999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-0.2</v>
       </c>
@@ -17281,7 +17408,7 @@
         <v>-1.554</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-0.1</v>
       </c>
@@ -17298,7 +17425,7 @@
         <v>-1.4279999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -17315,7 +17442,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.1</v>
       </c>
@@ -17332,7 +17459,7 @@
         <v>-1.167</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.2</v>
       </c>
@@ -17349,7 +17476,7 @@
         <v>-1.026</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.3</v>
       </c>
@@ -17366,7 +17493,7 @@
         <v>-0.85799999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.4</v>
       </c>
@@ -17383,7 +17510,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.5</v>
       </c>
@@ -17400,7 +17527,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.6</v>
       </c>
@@ -17417,7 +17544,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.7</v>
       </c>
@@ -17434,7 +17561,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.8</v>
       </c>
@@ -17451,7 +17578,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.9</v>
       </c>
@@ -17467,8 +17594,11 @@
       <c r="E30" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H30" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -17484,8 +17614,28 @@
       <c r="E31" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G31" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1.1000000000000001</v>
       </c>
@@ -18081,6 +18231,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G31:I31"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -18088,10 +18241,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18099,7 +18252,7 @@
     <col min="4" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18116,7 +18269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-1.9</v>
       </c>
@@ -18133,7 +18286,7 @@
         <v>-3.661</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-1.8</v>
       </c>
@@ -18150,7 +18303,7 @@
         <v>-3.5369999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-1.7</v>
       </c>
@@ -18167,7 +18320,7 @@
         <v>-3.4119999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-1.6</v>
       </c>
@@ -18184,7 +18337,7 @@
         <v>-3.2879999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-1.5</v>
       </c>
@@ -18200,8 +18353,11 @@
       <c r="E6">
         <v>-3.1640000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H6" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-1.4</v>
       </c>
@@ -18217,8 +18373,28 @@
       <c r="E7">
         <v>-3.04</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-1.3</v>
       </c>
@@ -18235,7 +18411,7 @@
         <v>-2.9159999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-1.2</v>
       </c>
@@ -18252,7 +18428,7 @@
         <v>-2.7930000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-1.1000000000000001</v>
       </c>
@@ -18269,7 +18445,7 @@
         <v>-2.669</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-1</v>
       </c>
@@ -18286,7 +18462,7 @@
         <v>-2.5459999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-0.9</v>
       </c>
@@ -18303,7 +18479,7 @@
         <v>-2.4220000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-0.8</v>
       </c>
@@ -18320,7 +18496,7 @@
         <v>-2.2989999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-0.7</v>
       </c>
@@ -18337,7 +18513,7 @@
         <v>-2.1760000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-0.6</v>
       </c>
@@ -18354,7 +18530,7 @@
         <v>-2.052</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-0.5</v>
       </c>
@@ -19222,6 +19398,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G7:I7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -19229,10 +19408,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19240,7 +19419,7 @@
     <col min="4" max="5" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19257,7 +19436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-1.9</v>
       </c>
@@ -19274,7 +19453,7 @@
         <v>-3.6720000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-1.8</v>
       </c>
@@ -19291,7 +19470,7 @@
         <v>-3.548</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-1.7</v>
       </c>
@@ -19308,7 +19487,7 @@
         <v>-3.423</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-1.6</v>
       </c>
@@ -19325,7 +19504,7 @@
         <v>-3.298</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-1.5</v>
       </c>
@@ -19342,7 +19521,7 @@
         <v>-3.1739999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-1.4</v>
       </c>
@@ -19358,8 +19537,11 @@
       <c r="E7">
         <v>-3.0489999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J7" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-1.3</v>
       </c>
@@ -19375,8 +19557,28 @@
       <c r="E8">
         <v>-2.9249999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I8" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-1.2</v>
       </c>
@@ -19393,7 +19595,7 @@
         <v>-2.8010000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-1.1000000000000001</v>
       </c>
@@ -19410,7 +19612,7 @@
         <v>-2.6760000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-1</v>
       </c>
@@ -19427,7 +19629,7 @@
         <v>-2.552</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-0.9</v>
       </c>
@@ -19444,7 +19646,7 @@
         <v>-2.4279999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-0.8</v>
       </c>
@@ -19461,7 +19663,7 @@
         <v>-2.3039999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-0.7</v>
       </c>
@@ -19478,7 +19680,7 @@
         <v>-2.1800000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-0.6</v>
       </c>
@@ -19495,7 +19697,7 @@
         <v>-2.056</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-0.5</v>
       </c>
@@ -20363,6 +20565,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I8:K8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/graphics.xlsx
+++ b/graphics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Desktop\Матмодели (4 сем)\math-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817FB104-EAD5-4B27-A5EF-2BB8E8916CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CD1F5C-5C22-43A0-874D-2FA197708E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A)" sheetId="1" r:id="rId1"/>
@@ -14740,8 +14740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15905,7 +15905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
@@ -17076,7 +17076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>

--- a/graphics.xlsx
+++ b/graphics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Desktop\Матмодели (4 сем)\math-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CD1F5C-5C22-43A0-874D-2FA197708E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9231F467-7889-42C1-811F-2C131390F2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="780" windowWidth="19440" windowHeight="15000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A)" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="232">
   <si>
     <t>x2</t>
   </si>
@@ -729,6 +729,9 @@
   </si>
   <si>
     <t>p4 = 14</t>
+  </si>
+  <si>
+    <t>Бифуркация</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1089,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1251,12 +1254,24 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1396,7 +1411,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'A)'!$C$1</c:f>
+              <c:f>'A)'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1431,7 +1446,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'A)'!$A$2:$A$66</c:f>
+              <c:f>'A)'!$B$2:$B$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
@@ -1635,7 +1650,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'A)'!$C$2:$C$66</c:f>
+              <c:f>'A)'!$A$2:$A$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
@@ -2111,7 +2126,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'B) p4=14'!$C$1</c:f>
+              <c:f>'B) p4=14'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2146,7 +2161,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'B) p4=14'!$B$2:$B$66</c:f>
+              <c:f>'B) p4=14'!$C$2:$C$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
@@ -2350,7 +2365,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'B) p4=14'!$C$2:$C$66</c:f>
+              <c:f>'B) p4=14'!$A$2:$A$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
@@ -2826,7 +2841,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'A)'!$C$1</c:f>
+              <c:f>'A)'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2861,7 +2876,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'A)'!$B$2:$B$66</c:f>
+              <c:f>'A)'!$C$2:$C$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
@@ -3065,7 +3080,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'A)'!$C$2:$C$66</c:f>
+              <c:f>'A)'!$A$2:$A$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
@@ -3541,7 +3556,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'B) p4=8'!$C$1</c:f>
+              <c:f>'B) p4=8'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3576,7 +3591,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'B) p4=8'!$A$2:$A$66</c:f>
+              <c:f>'B) p4=8'!$B$2:$B$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
@@ -3780,7 +3795,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'B) p4=8'!$C$2:$C$66</c:f>
+              <c:f>'B) p4=8'!$A$2:$A$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
@@ -4266,7 +4281,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'B) p4=8'!$C$1</c:f>
+              <c:f>'B) p4=8'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4301,7 +4316,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'B) p4=8'!$B$2:$B$66</c:f>
+              <c:f>'B) p4=8'!$C$2:$C$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
@@ -4505,7 +4520,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'B) p4=8'!$C$2:$C$66</c:f>
+              <c:f>'B) p4=8'!$A$2:$A$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
@@ -4981,7 +4996,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'B) p4=10'!$C$1</c:f>
+              <c:f>'B) p4=10'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5016,7 +5031,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'B) p4=10'!$A$2:$A$66</c:f>
+              <c:f>'B) p4=10'!$B$2:$B$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
@@ -5220,7 +5235,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'B) p4=10'!$C$2:$C$66</c:f>
+              <c:f>'B) p4=10'!$A$2:$A$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
@@ -5696,7 +5711,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'B) p4=10'!$C$1</c:f>
+              <c:f>'B) p4=10'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5731,7 +5746,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'B) p4=10'!$B$2:$B$66</c:f>
+              <c:f>'B) p4=10'!$C$2:$C$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
@@ -5935,7 +5950,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'B) p4=10'!$C$2:$C$66</c:f>
+              <c:f>'B) p4=10'!$A$2:$A$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
@@ -6411,7 +6426,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'B) p4=12'!$C$1</c:f>
+              <c:f>'B) p4=12'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6446,7 +6461,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'B) p4=12'!$A$2:$A$66</c:f>
+              <c:f>'B) p4=12'!$B$2:$B$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
@@ -6650,7 +6665,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'B) p4=12'!$C$2:$C$66</c:f>
+              <c:f>'B) p4=12'!$A$2:$A$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
@@ -7126,7 +7141,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'B) p4=12'!$C$1</c:f>
+              <c:f>'B) p4=12'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7161,7 +7176,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'B) p4=12'!$B$2:$B$66</c:f>
+              <c:f>'B) p4=12'!$C$2:$C$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
@@ -7365,7 +7380,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'B) p4=12'!$C$2:$C$66</c:f>
+              <c:f>'B) p4=12'!$A$2:$A$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
@@ -7841,7 +7856,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'B) p4=14'!$C$1</c:f>
+              <c:f>'B) p4=14'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7876,7 +7891,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'B) p4=14'!$A$2:$A$66</c:f>
+              <c:f>'B) p4=14'!$B$2:$B$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
@@ -8080,7 +8095,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'B) p4=14'!$C$2:$C$66</c:f>
+              <c:f>'B) p4=14'!$A$2:$A$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
@@ -14272,14 +14287,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>404811</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:colOff>523873</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>61911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>485774</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:colOff>604836</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14308,15 +14323,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>159885</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>56469</xdr:rowOff>
+      <xdr:colOff>112260</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>153081</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14740,25 +14755,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="5" width="16.42578125" customWidth="1"/>
-    <col min="10" max="14" width="10.140625" customWidth="1"/>
+    <col min="10" max="14" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -14766,16 +14781,19 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="B2">
         <v>-1.9</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="C2">
-        <v>-3.3000000000000002E-2</v>
       </c>
       <c r="D2">
         <v>-0.996</v>
@@ -14784,15 +14802,15 @@
         <v>-1.649</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="B3">
         <v>-1.9</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>1.2E-2</v>
-      </c>
-      <c r="C3">
-        <v>8.7999999999999995E-2</v>
       </c>
       <c r="D3">
         <v>-1.016</v>
@@ -14800,16 +14818,31 @@
       <c r="E3">
         <v>-1.4510000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>0.185</v>
+      </c>
+      <c r="B4">
         <v>-1.7</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="C4">
-        <v>0.185</v>
       </c>
       <c r="D4">
         <v>-1.081</v>
@@ -14817,16 +14850,31 @@
       <c r="E4">
         <v>-1.2130000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J4" s="4">
+        <v>-0.8</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="M4" s="4">
+        <v>-0.86499999999999999</v>
+      </c>
+      <c r="N4" s="4">
+        <v>-7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="B5">
         <v>-1.6</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="C5">
-        <v>0.26200000000000001</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -14834,16 +14882,31 @@
       <c r="E5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J5" s="4">
+        <v>-0.7</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.188</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="M5" s="4">
+        <v>-0.86799999999999999</v>
+      </c>
+      <c r="N5" s="4">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="B6">
         <v>-1.5</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>0.06</v>
-      </c>
-      <c r="C6">
-        <v>0.32300000000000001</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -14852,15 +14915,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>0.371</v>
+      </c>
+      <c r="B7">
         <v>-1.4</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="C7">
-        <v>0.371</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -14868,16 +14931,31 @@
       <c r="E7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="B8">
         <v>-1.3</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="C8">
-        <v>0.40699999999999997</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -14885,16 +14963,31 @@
       <c r="E8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J8" s="7">
+        <v>0.255</v>
+      </c>
+      <c r="K8" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.748</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>0.434</v>
+      </c>
+      <c r="B9">
         <v>-1.2</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>0.108</v>
-      </c>
-      <c r="C9">
-        <v>0.434</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -14902,16 +14995,31 @@
       <c r="E9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J9" s="7">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="K9" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="B10">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>0.124</v>
-      </c>
-      <c r="C10">
-        <v>0.45300000000000001</v>
       </c>
       <c r="D10">
         <v>-0.81699999999999995</v>
@@ -14920,32 +15028,32 @@
         <v>-0.53600000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="B11" s="3">
         <v>-1</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C11" s="1">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>-0.84599999999999997</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="3">
         <v>-0.36499999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="B12">
         <v>-0.9</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>0.156</v>
-      </c>
-      <c r="C12">
-        <v>0.47399999999999998</v>
       </c>
       <c r="D12">
         <v>-0.85899999999999999</v>
@@ -14953,16 +15061,31 @@
       <c r="E12">
         <v>-0.216</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>2.391</v>
+      </c>
+      <c r="K12">
+        <v>4.3</v>
+      </c>
+      <c r="L12">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="M12">
+        <v>-76.587000000000003</v>
+      </c>
+      <c r="N12">
+        <v>-1.6539999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="B13">
         <v>-0.8</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>0.17199999999999999</v>
-      </c>
-      <c r="C13">
-        <v>0.47799999999999998</v>
       </c>
       <c r="D13">
         <v>-0.86499999999999999</v>
@@ -14970,16 +15093,31 @@
       <c r="E13">
         <v>-7.5999999999999998E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>-6.8129999999999997</v>
+      </c>
+      <c r="K13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L13">
+        <v>1.004</v>
+      </c>
+      <c r="M13">
+        <v>256.73</v>
+      </c>
+      <c r="N13">
+        <v>-1.5840000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="B14">
         <v>-0.7</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>0.188</v>
-      </c>
-      <c r="C14">
-        <v>0.47799999999999998</v>
       </c>
       <c r="D14">
         <v>-0.86799999999999999</v>
@@ -14988,15 +15126,15 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="B15">
         <v>-0.6</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>0.20399999999999999</v>
-      </c>
-      <c r="C15">
-        <v>0.47599999999999998</v>
       </c>
       <c r="D15">
         <v>-0.87</v>
@@ -15005,15 +15143,15 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="B16">
         <v>-0.5</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>0.22</v>
-      </c>
-      <c r="C16">
-        <v>0.47099999999999997</v>
       </c>
       <c r="D16">
         <v>-0.87</v>
@@ -15024,13 +15162,13 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="B17">
         <v>-0.4</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>0.23599999999999999</v>
-      </c>
-      <c r="C17">
-        <v>0.46500000000000002</v>
       </c>
       <c r="D17">
         <v>-0.86899999999999999</v>
@@ -15041,13 +15179,13 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="B18">
         <v>-0.3</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>0.252</v>
-      </c>
-      <c r="C18">
-        <v>0.45700000000000002</v>
       </c>
       <c r="D18">
         <v>-0.86799999999999999</v>
@@ -15058,13 +15196,13 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="B19">
         <v>-0.2</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>0.26800000000000002</v>
-      </c>
-      <c r="C19">
-        <v>0.44800000000000001</v>
       </c>
       <c r="D19">
         <v>-0.86599999999999999</v>
@@ -15072,36 +15210,36 @@
       <c r="E19">
         <v>0.63400000000000001</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="2" t="s">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="N19" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>0.439</v>
+      </c>
+      <c r="B20">
         <v>-0.1</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>0.28399999999999997</v>
-      </c>
-      <c r="C20">
-        <v>0.439</v>
       </c>
       <c r="D20">
         <v>-0.86299999999999999</v>
@@ -15112,13 +15250,13 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="B21">
         <v>0</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>0.3</v>
-      </c>
-      <c r="C21">
-        <v>0.42899999999999999</v>
       </c>
       <c r="D21">
         <v>-0.86</v>
@@ -15129,13 +15267,13 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="B22">
         <v>0.1</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>0.316</v>
-      </c>
-      <c r="C22">
-        <v>0.41799999999999998</v>
       </c>
       <c r="D22">
         <v>-0.85599999999999998</v>
@@ -15146,13 +15284,13 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="B23">
         <v>0.2</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>0.33200000000000002</v>
-      </c>
-      <c r="C23">
-        <v>0.40799999999999997</v>
       </c>
       <c r="D23">
         <v>-0.85199999999999998</v>
@@ -15163,13 +15301,13 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="B24">
         <v>0.3</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>0.34799999999999998</v>
-      </c>
-      <c r="C24">
-        <v>0.39700000000000002</v>
       </c>
       <c r="D24">
         <v>-0.84699999999999998</v>
@@ -15180,13 +15318,13 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="B25">
         <v>0.4</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>0.36399999999999999</v>
-      </c>
-      <c r="C25">
-        <v>0.38700000000000001</v>
       </c>
       <c r="D25">
         <v>-0.84199999999999997</v>
@@ -15197,13 +15335,13 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>0.376</v>
+      </c>
+      <c r="B26">
         <v>0.5</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>0.38</v>
-      </c>
-      <c r="C26">
-        <v>0.376</v>
       </c>
       <c r="D26">
         <v>-0.83599999999999997</v>
@@ -15214,13 +15352,13 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="B27">
         <v>0.6</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>0.39600000000000002</v>
-      </c>
-      <c r="C27">
-        <v>0.36599999999999999</v>
       </c>
       <c r="D27">
         <v>-0.82899999999999996</v>
@@ -15231,13 +15369,13 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="B28">
         <v>0.7</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>0.41199999999999998</v>
-      </c>
-      <c r="C28">
-        <v>0.35599999999999998</v>
       </c>
       <c r="D28">
         <v>-0.82199999999999995</v>
@@ -15248,13 +15386,13 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="B29">
         <v>0.8</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>0.42799999999999999</v>
-      </c>
-      <c r="C29">
-        <v>0.34699999999999998</v>
       </c>
       <c r="D29">
         <v>-0.81499999999999995</v>
@@ -15265,13 +15403,13 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="B30">
         <v>0.9</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>0.44400000000000001</v>
-      </c>
-      <c r="C30">
-        <v>0.33800000000000002</v>
       </c>
       <c r="D30">
         <v>-0.80600000000000005</v>
@@ -15282,13 +15420,13 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="B31">
         <v>1</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>0.46</v>
-      </c>
-      <c r="C31">
-        <v>0.32900000000000001</v>
       </c>
       <c r="D31">
         <v>-0.79700000000000004</v>
@@ -15299,13 +15437,13 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>0.32</v>
+      </c>
+      <c r="B32">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>0.47599999999999998</v>
-      </c>
-      <c r="C32">
-        <v>0.32</v>
       </c>
       <c r="D32">
         <v>-0.78700000000000003</v>
@@ -15316,13 +15454,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>0.312</v>
+      </c>
+      <c r="B33">
         <v>1.2</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>0.49199999999999999</v>
-      </c>
-      <c r="C33">
-        <v>0.312</v>
       </c>
       <c r="D33">
         <v>-0.77500000000000002</v>
@@ -15333,13 +15471,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="B34">
         <v>1.3</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>0.50800000000000001</v>
-      </c>
-      <c r="C34">
-        <v>0.30499999999999999</v>
       </c>
       <c r="D34">
         <v>-0.76300000000000001</v>
@@ -15350,13 +15488,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="B35">
         <v>1.4</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>0.52400000000000002</v>
-      </c>
-      <c r="C35">
-        <v>0.29799999999999999</v>
       </c>
       <c r="D35">
         <v>-0.748</v>
@@ -15367,13 +15505,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="B36">
         <v>1.5</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>0.54</v>
-      </c>
-      <c r="C36">
-        <v>0.29099999999999998</v>
       </c>
       <c r="D36">
         <v>-0.73199999999999998</v>
@@ -15384,13 +15522,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="B37">
         <v>1.6</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>0.55600000000000005</v>
-      </c>
-      <c r="C37">
-        <v>0.28499999999999998</v>
       </c>
       <c r="D37">
         <v>-0.71399999999999997</v>
@@ -15401,13 +15539,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="B38">
         <v>1.7</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>0.57199999999999995</v>
-      </c>
-      <c r="C38">
-        <v>0.27900000000000003</v>
       </c>
       <c r="D38">
         <v>-0.69299999999999995</v>
@@ -15418,13 +15556,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="B39">
         <v>1.8</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>0.58799999999999997</v>
-      </c>
-      <c r="C39">
-        <v>0.27400000000000002</v>
       </c>
       <c r="D39">
         <v>-0.67</v>
@@ -15435,13 +15573,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="B40">
         <v>1.9</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>0.60399999999999998</v>
-      </c>
-      <c r="C40">
-        <v>0.26900000000000002</v>
       </c>
       <c r="D40">
         <v>-0.64200000000000002</v>
@@ -15452,13 +15590,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="B41">
         <v>2</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>0.62</v>
-      </c>
-      <c r="C41">
-        <v>0.26500000000000001</v>
       </c>
       <c r="D41">
         <v>-0.60899999999999999</v>
@@ -15469,13 +15607,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="B42">
         <v>2.1</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>0.63600000000000001</v>
-      </c>
-      <c r="C42">
-        <v>0.26100000000000001</v>
       </c>
       <c r="D42">
         <v>-0.56899999999999995</v>
@@ -15486,13 +15624,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="B43">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>0.65200000000000002</v>
-      </c>
-      <c r="C43">
-        <v>0.25800000000000001</v>
       </c>
       <c r="D43">
         <v>-0.51900000000000002</v>
@@ -15503,13 +15641,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="B44">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>0.66800000000000004</v>
-      </c>
-      <c r="C44">
-        <v>0.25600000000000001</v>
       </c>
       <c r="D44">
         <v>-0.45500000000000002</v>
@@ -15520,13 +15658,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>0.254</v>
+      </c>
+      <c r="B45">
         <v>2.4</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>0.68400000000000005</v>
-      </c>
-      <c r="C45">
-        <v>0.254</v>
       </c>
       <c r="D45">
         <v>-0.36899999999999999</v>
@@ -15537,13 +15675,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>0.253</v>
+      </c>
+      <c r="B46">
         <v>2.5</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>0.7</v>
-      </c>
-      <c r="C46">
-        <v>0.253</v>
       </c>
       <c r="D46">
         <v>-0.23699999999999999</v>
@@ -15554,13 +15692,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
+        <v>0.253</v>
+      </c>
+      <c r="B47">
         <v>2.6</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>0.71599999999999997</v>
-      </c>
-      <c r="C47">
-        <v>0.253</v>
       </c>
       <c r="D47">
         <v>6.2E-2</v>
@@ -15571,13 +15709,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
+        <v>0.253</v>
+      </c>
+      <c r="B48">
         <v>2.7</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>0.73199999999999998</v>
-      </c>
-      <c r="C48">
-        <v>0.253</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
@@ -15588,13 +15726,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
+        <v>0.255</v>
+      </c>
+      <c r="B49">
         <v>2.8</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>0.748</v>
-      </c>
-      <c r="C49">
-        <v>0.255</v>
       </c>
       <c r="D49" t="s">
         <v>17</v>
@@ -15605,13 +15743,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="B50">
         <v>2.9</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>0.76400000000000001</v>
-      </c>
-      <c r="C50">
-        <v>0.25700000000000001</v>
       </c>
       <c r="D50" t="s">
         <v>19</v>
@@ -15622,13 +15760,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="B51">
         <v>3</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>0.78</v>
-      </c>
-      <c r="C51">
-        <v>0.26100000000000001</v>
       </c>
       <c r="D51" t="s">
         <v>21</v>
@@ -15639,13 +15777,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="B52">
         <v>3.1</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>0.79600000000000004</v>
-      </c>
-      <c r="C52">
-        <v>0.26600000000000001</v>
       </c>
       <c r="D52" t="s">
         <v>23</v>
@@ -15656,13 +15794,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="B53">
         <v>3.2</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>0.81200000000000006</v>
-      </c>
-      <c r="C53">
-        <v>0.27400000000000002</v>
       </c>
       <c r="D53" t="s">
         <v>25</v>
@@ -15673,13 +15811,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="B54">
         <v>3.3</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>0.82799999999999996</v>
-      </c>
-      <c r="C54">
-        <v>0.28299999999999997</v>
       </c>
       <c r="D54" t="s">
         <v>27</v>
@@ -15690,13 +15828,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="B55">
         <v>3.4</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>0.84399999999999997</v>
-      </c>
-      <c r="C55">
-        <v>0.29599999999999999</v>
       </c>
       <c r="D55" t="s">
         <v>29</v>
@@ -15707,13 +15845,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
+        <v>0.312</v>
+      </c>
+      <c r="B56">
         <v>3.5</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>0.86</v>
-      </c>
-      <c r="C56">
-        <v>0.312</v>
       </c>
       <c r="D56" t="s">
         <v>31</v>
@@ -15724,13 +15862,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="B57">
         <v>3.6</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>0.876</v>
-      </c>
-      <c r="C57">
-        <v>0.33400000000000002</v>
       </c>
       <c r="D57" t="s">
         <v>33</v>
@@ -15741,13 +15879,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="B58">
         <v>3.7</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>0.89200000000000002</v>
-      </c>
-      <c r="C58">
-        <v>0.36399999999999999</v>
       </c>
       <c r="D58" t="s">
         <v>35</v>
@@ -15758,13 +15896,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="B59">
         <v>3.8</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>0.90800000000000003</v>
-      </c>
-      <c r="C59">
-        <v>0.40500000000000003</v>
       </c>
       <c r="D59" t="s">
         <v>37</v>
@@ -15775,13 +15913,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="B60">
         <v>3.9</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>0.92400000000000004</v>
-      </c>
-      <c r="C60">
-        <v>0.46500000000000002</v>
       </c>
       <c r="D60">
         <v>-5.7519999999999998</v>
@@ -15792,13 +15930,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="B61">
         <v>4</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>0.94</v>
-      </c>
-      <c r="C61">
-        <v>0.55900000000000005</v>
       </c>
       <c r="D61">
         <v>-9.6519999999999992</v>
@@ -15809,13 +15947,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="B62">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>0.95599999999999996</v>
-      </c>
-      <c r="C62">
-        <v>0.72299999999999998</v>
       </c>
       <c r="D62">
         <v>-15.866</v>
@@ -15826,13 +15964,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
+        <v>1.079</v>
+      </c>
+      <c r="B63">
         <v>4.2</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>0.97199999999999998</v>
-      </c>
-      <c r="C63">
-        <v>1.079</v>
       </c>
       <c r="D63">
         <v>-28.93</v>
@@ -15843,13 +15981,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
+        <v>2.391</v>
+      </c>
+      <c r="B64">
         <v>4.3</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>0.98799999999999999</v>
-      </c>
-      <c r="C64">
-        <v>2.391</v>
       </c>
       <c r="D64">
         <v>-76.587000000000003</v>
@@ -15860,13 +15998,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
+        <v>-6.8129999999999997</v>
+      </c>
+      <c r="B65">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>1.004</v>
-      </c>
-      <c r="C65">
-        <v>-6.8129999999999997</v>
       </c>
       <c r="D65">
         <v>256.73</v>
@@ -15877,13 +16015,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
+        <v>-1.2949999999999999</v>
+      </c>
+      <c r="B66">
         <v>4.5</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>1.02</v>
-      </c>
-      <c r="C66">
-        <v>-1.2949999999999999</v>
       </c>
       <c r="D66">
         <v>56.726999999999997</v>
@@ -15905,8 +16043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15918,15 +16056,15 @@
     <col min="15" max="15" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -15935,15 +16073,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>-1.276</v>
+      </c>
+      <c r="B2">
         <v>-1.9</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>-0.61699999999999999</v>
-      </c>
-      <c r="C2">
-        <v>-1.276</v>
       </c>
       <c r="D2">
         <v>-0.45100000000000001</v>
@@ -15952,15 +16090,15 @@
         <v>-3.6280000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>-1.1160000000000001</v>
+      </c>
+      <c r="B3">
         <v>-1.8</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>-0.58499999999999996</v>
-      </c>
-      <c r="C3">
-        <v>-1.1160000000000001</v>
       </c>
       <c r="D3">
         <v>-0.45100000000000001</v>
@@ -15969,15 +16107,15 @@
         <v>-3.5049999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>-0.97399999999999998</v>
+      </c>
+      <c r="B4">
         <v>-1.7</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>-0.55200000000000005</v>
-      </c>
-      <c r="C4">
-        <v>-0.97399999999999998</v>
       </c>
       <c r="D4">
         <v>-0.45100000000000001</v>
@@ -15986,15 +16124,15 @@
         <v>-3.3809999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>-0.84699999999999998</v>
+      </c>
+      <c r="B5">
         <v>-1.6</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>-0.52</v>
-      </c>
-      <c r="C5">
-        <v>-0.84699999999999998</v>
       </c>
       <c r="D5">
         <v>-0.45</v>
@@ -16003,15 +16141,15 @@
         <v>-3.2589999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>-0.73399999999999999</v>
+      </c>
+      <c r="B6">
         <v>-1.5</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>-0.48699999999999999</v>
-      </c>
-      <c r="C6">
-        <v>-0.73399999999999999</v>
       </c>
       <c r="D6">
         <v>-0.45</v>
@@ -16019,16 +16157,31 @@
       <c r="E6">
         <v>-3.1360000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>-0.63400000000000001</v>
+      </c>
+      <c r="B7">
         <v>-1.4</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>-0.45500000000000002</v>
-      </c>
-      <c r="C7">
-        <v>-0.63400000000000001</v>
       </c>
       <c r="D7">
         <v>-0.45</v>
@@ -16036,16 +16189,31 @@
       <c r="E7">
         <v>-3.0129999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I7" s="7">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="J7" s="7">
+        <v>3</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="L7" s="7">
+        <v>-15.885999999999999</v>
+      </c>
+      <c r="M7" s="7">
+        <v>-1.514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>-0.54500000000000004</v>
+      </c>
+      <c r="B8">
         <v>-1.3</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>-0.42199999999999999</v>
-      </c>
-      <c r="C8">
-        <v>-0.54500000000000004</v>
       </c>
       <c r="D8">
         <v>-0.45</v>
@@ -16053,16 +16221,31 @@
       <c r="E8">
         <v>-2.891</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I8" s="7">
+        <v>-3.0259999999999998</v>
+      </c>
+      <c r="J8" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1.008</v>
+      </c>
+      <c r="L8" s="7">
+        <v>70.652000000000001</v>
+      </c>
+      <c r="M8" s="7">
+        <v>-1.2549999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>-0.46600000000000003</v>
+      </c>
+      <c r="B9">
         <v>-1.2</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>-0.39</v>
-      </c>
-      <c r="C9">
-        <v>-0.46600000000000003</v>
       </c>
       <c r="D9">
         <v>-0.45100000000000001</v>
@@ -16071,15 +16254,15 @@
         <v>-2.7690000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>-0.39600000000000002</v>
+      </c>
+      <c r="B10">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>-0.35699999999999998</v>
-      </c>
-      <c r="C10">
-        <v>-0.39600000000000002</v>
       </c>
       <c r="D10">
         <v>-0.45100000000000001</v>
@@ -16088,15 +16271,15 @@
         <v>-2.6469999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>-0.33300000000000002</v>
+      </c>
+      <c r="B11">
         <v>-1</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>-0.32500000000000001</v>
-      </c>
-      <c r="C11">
-        <v>-0.33300000000000002</v>
       </c>
       <c r="D11">
         <v>-0.45200000000000001</v>
@@ -16105,15 +16288,15 @@
         <v>-2.5259999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>-0.27800000000000002</v>
+      </c>
+      <c r="B12">
         <v>-0.9</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>-0.29199999999999998</v>
-      </c>
-      <c r="C12">
-        <v>-0.27800000000000002</v>
       </c>
       <c r="D12">
         <v>-0.45200000000000001</v>
@@ -16122,15 +16305,15 @@
         <v>-2.4039999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>-0.23</v>
+      </c>
+      <c r="B13">
         <v>-0.8</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>-0.26</v>
-      </c>
-      <c r="C13">
-        <v>-0.23</v>
       </c>
       <c r="D13">
         <v>-0.45400000000000001</v>
@@ -16139,15 +16322,15 @@
         <v>-2.2829999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>-0.187</v>
+      </c>
+      <c r="B14">
         <v>-0.7</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>-0.22700000000000001</v>
-      </c>
-      <c r="C14">
-        <v>-0.187</v>
       </c>
       <c r="D14">
         <v>-0.45500000000000002</v>
@@ -16156,15 +16339,15 @@
         <v>-2.1619999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>-0.14899999999999999</v>
+      </c>
+      <c r="B15">
         <v>-0.6</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>-0.19500000000000001</v>
-      </c>
-      <c r="C15">
-        <v>-0.14899999999999999</v>
       </c>
       <c r="D15">
         <v>-0.45800000000000002</v>
@@ -16173,15 +16356,15 @@
         <v>-2.0409999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>-0.115</v>
+      </c>
+      <c r="B16">
         <v>-0.5</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>-0.16200000000000001</v>
-      </c>
-      <c r="C16">
-        <v>-0.115</v>
       </c>
       <c r="D16">
         <v>-0.46100000000000002</v>
@@ -16192,13 +16375,13 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="B17">
         <v>-0.4</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>-0.13</v>
-      </c>
-      <c r="C17">
-        <v>-8.5999999999999993E-2</v>
       </c>
       <c r="D17">
         <v>-0.46500000000000002</v>
@@ -16209,13 +16392,13 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>-0.06</v>
+      </c>
+      <c r="B18">
         <v>-0.3</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>-9.7000000000000003E-2</v>
-      </c>
-      <c r="C18">
-        <v>-0.06</v>
       </c>
       <c r="D18">
         <v>-0.47</v>
@@ -16226,13 +16409,13 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+      <c r="B19">
         <v>-0.2</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>-6.5000000000000002E-2</v>
-      </c>
-      <c r="C19">
-        <v>-3.6999999999999998E-2</v>
       </c>
       <c r="D19">
         <v>-0.47699999999999998</v>
@@ -16243,13 +16426,13 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="B20">
         <v>-0.1</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>-3.2000000000000001E-2</v>
-      </c>
-      <c r="C20">
-        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="D20">
         <v>-0.48599999999999999</v>
@@ -16277,13 +16460,13 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="B22">
         <v>0.1</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="C22">
-        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D22">
         <v>-0.52</v>
@@ -16294,13 +16477,13 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="B23">
         <v>0.2</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="C23">
-        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D23">
         <v>-0.55300000000000005</v>
@@ -16311,13 +16494,13 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>0.04</v>
+      </c>
+      <c r="B24">
         <v>0.3</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="C24">
-        <v>0.04</v>
       </c>
       <c r="D24">
         <v>-0.629</v>
@@ -16328,13 +16511,13 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>0.05</v>
+      </c>
+      <c r="B25">
         <v>0.4</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>0.13</v>
-      </c>
-      <c r="C25">
-        <v>0.05</v>
       </c>
       <c r="D25" t="s">
         <v>39</v>
@@ -16345,13 +16528,13 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="B26">
         <v>0.5</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>0.16300000000000001</v>
-      </c>
-      <c r="C26">
-        <v>5.8999999999999997E-2</v>
       </c>
       <c r="D26" t="s">
         <v>41</v>
@@ -16362,13 +16545,13 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="B27">
         <v>0.6</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>0.19500000000000001</v>
-      </c>
-      <c r="C27">
-        <v>6.6000000000000003E-2</v>
       </c>
       <c r="D27" t="s">
         <v>43</v>
@@ -16379,13 +16562,13 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="B28">
         <v>0.7</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>0.22800000000000001</v>
-      </c>
-      <c r="C28">
-        <v>7.2999999999999995E-2</v>
       </c>
       <c r="D28" t="s">
         <v>45</v>
@@ -16394,15 +16577,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="B29">
         <v>0.8</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>0.26</v>
-      </c>
-      <c r="C29">
-        <v>7.9000000000000001E-2</v>
       </c>
       <c r="D29" t="s">
         <v>47</v>
@@ -16410,19 +16593,16 @@
       <c r="E29" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>224</v>
-      </c>
     </row>
     <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="B30">
         <v>0.9</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>0.29299999999999998</v>
-      </c>
-      <c r="C30">
-        <v>8.4000000000000005E-2</v>
       </c>
       <c r="D30" t="s">
         <v>49</v>
@@ -16430,36 +16610,37 @@
       <c r="E30" t="s">
         <v>50</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="2" t="s">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="K30" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="N30" s="2" t="s">
+      <c r="N30" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="O30" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="P30" s="2" t="s">
-        <v>222</v>
-      </c>
+      <c r="P30" s="1"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="B31">
         <v>1</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>0.32500000000000001</v>
-      </c>
-      <c r="C31">
-        <v>8.8999999999999996E-2</v>
       </c>
       <c r="D31" t="s">
         <v>51</v>
@@ -16470,13 +16651,13 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="B32">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>0.35799999999999998</v>
-      </c>
-      <c r="C32">
-        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D32" t="s">
         <v>53</v>
@@ -16487,13 +16668,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="B33">
         <v>1.2</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>0.39</v>
-      </c>
-      <c r="C33">
-        <v>9.6000000000000002E-2</v>
       </c>
       <c r="D33" t="s">
         <v>55</v>
@@ -16504,13 +16685,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>0.1</v>
+      </c>
+      <c r="B34">
         <v>1.3</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>0.42299999999999999</v>
-      </c>
-      <c r="C34">
-        <v>0.1</v>
       </c>
       <c r="D34" t="s">
         <v>57</v>
@@ -16521,13 +16702,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="B35">
         <v>1.4</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>0.45500000000000002</v>
-      </c>
-      <c r="C35">
-        <v>0.10299999999999999</v>
       </c>
       <c r="D35" t="s">
         <v>59</v>
@@ -16538,13 +16719,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>0.106</v>
+      </c>
+      <c r="B36">
         <v>1.5</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>0.48799999999999999</v>
-      </c>
-      <c r="C36">
-        <v>0.106</v>
       </c>
       <c r="D36" t="s">
         <v>61</v>
@@ -16555,13 +16736,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>0.109</v>
+      </c>
+      <c r="B37">
         <v>1.6</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>0.52</v>
-      </c>
-      <c r="C37">
-        <v>0.109</v>
       </c>
       <c r="D37" t="s">
         <v>63</v>
@@ -16572,13 +16753,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
+        <v>0.113</v>
+      </c>
+      <c r="B38">
         <v>1.7</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>0.55300000000000005</v>
-      </c>
-      <c r="C38">
-        <v>0.113</v>
       </c>
       <c r="D38" t="s">
         <v>65</v>
@@ -16589,13 +16770,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="B39">
         <v>1.8</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>0.58499999999999996</v>
-      </c>
-      <c r="C39">
-        <v>0.11700000000000001</v>
       </c>
       <c r="D39" t="s">
         <v>67</v>
@@ -16606,13 +16787,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
+        <v>0.121</v>
+      </c>
+      <c r="B40">
         <v>1.9</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>0.61799999999999999</v>
-      </c>
-      <c r="C40">
-        <v>0.121</v>
       </c>
       <c r="D40" t="s">
         <v>69</v>
@@ -16623,13 +16804,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>0.126</v>
+      </c>
+      <c r="B41">
         <v>2</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>0.65</v>
-      </c>
-      <c r="C41">
-        <v>0.126</v>
       </c>
       <c r="D41" t="s">
         <v>71</v>
@@ -16640,13 +16821,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="B42">
         <v>2.1</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>0.68300000000000005</v>
-      </c>
-      <c r="C42">
-        <v>0.13200000000000001</v>
       </c>
       <c r="D42" t="s">
         <v>73</v>
@@ -16657,13 +16838,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="B43">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>0.71499999999999997</v>
-      </c>
-      <c r="C43">
-        <v>0.13900000000000001</v>
       </c>
       <c r="D43" t="s">
         <v>75</v>
@@ -16674,13 +16855,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="B44">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>0.748</v>
-      </c>
-      <c r="C44">
-        <v>0.14799999999999999</v>
       </c>
       <c r="D44" t="s">
         <v>77</v>
@@ -16691,13 +16872,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>0.161</v>
+      </c>
+      <c r="B45">
         <v>2.4</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>0.78</v>
-      </c>
-      <c r="C45">
-        <v>0.161</v>
       </c>
       <c r="D45" t="s">
         <v>79</v>
@@ -16708,13 +16889,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="B46">
         <v>2.5</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>0.81299999999999994</v>
-      </c>
-      <c r="C46">
-        <v>0.17799999999999999</v>
       </c>
       <c r="D46" t="s">
         <v>81</v>
@@ -16725,13 +16906,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="B47">
         <v>2.6</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>0.84499999999999997</v>
-      </c>
-      <c r="C47">
-        <v>0.20200000000000001</v>
       </c>
       <c r="D47" t="s">
         <v>83</v>
@@ -16742,13 +16923,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="B48">
         <v>2.7</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>0.878</v>
-      </c>
-      <c r="C48">
-        <v>0.24099999999999999</v>
       </c>
       <c r="D48" t="s">
         <v>85</v>
@@ -16759,13 +16940,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
+        <v>0.307</v>
+      </c>
+      <c r="B49">
         <v>2.8</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>0.91</v>
-      </c>
-      <c r="C49">
-        <v>0.307</v>
       </c>
       <c r="D49" t="s">
         <v>87</v>
@@ -16776,13 +16957,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="B50">
         <v>2.9</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>0.94299999999999995</v>
-      </c>
-      <c r="C50">
-        <v>0.45100000000000001</v>
       </c>
       <c r="D50">
         <v>-3.633</v>
@@ -16793,13 +16974,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="B51">
         <v>3</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>0.97499999999999998</v>
-      </c>
-      <c r="C51">
-        <v>0.97099999999999997</v>
       </c>
       <c r="D51">
         <v>-15.885999999999999</v>
@@ -16810,13 +16991,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
+        <v>-3.0259999999999998</v>
+      </c>
+      <c r="B52">
         <v>3.1</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>1.008</v>
-      </c>
-      <c r="C52">
-        <v>-3.0259999999999998</v>
       </c>
       <c r="D52">
         <v>70.652000000000001</v>
@@ -16827,13 +17008,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
+        <v>-0.53</v>
+      </c>
+      <c r="B53">
         <v>3.2</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>1.04</v>
-      </c>
-      <c r="C53">
-        <v>-0.53</v>
       </c>
       <c r="D53">
         <v>16.472999999999999</v>
@@ -16844,13 +17025,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
+        <v>-0.27300000000000002</v>
+      </c>
+      <c r="B54">
         <v>3.3</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>1.073</v>
-      </c>
-      <c r="C54">
-        <v>-0.27300000000000002</v>
       </c>
       <c r="D54">
         <v>10.904999999999999</v>
@@ -16861,13 +17042,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
+        <v>-0.17599999999999999</v>
+      </c>
+      <c r="B55">
         <v>3.4</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>1.105</v>
-      </c>
-      <c r="C55">
-        <v>-0.17599999999999999</v>
       </c>
       <c r="D55">
         <v>8.8330000000000002</v>
@@ -16878,13 +17059,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
+        <v>-0.125</v>
+      </c>
+      <c r="B56">
         <v>3.5</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>1.1379999999999999</v>
-      </c>
-      <c r="C56">
-        <v>-0.125</v>
       </c>
       <c r="D56">
         <v>7.7859999999999996</v>
@@ -16895,13 +17076,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
+        <v>-9.4E-2</v>
+      </c>
+      <c r="B57">
         <v>3.6</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>1.17</v>
-      </c>
-      <c r="C57">
-        <v>-9.4E-2</v>
       </c>
       <c r="D57">
         <v>-0.85799999999999998</v>
@@ -16912,13 +17093,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
+        <v>-7.2999999999999995E-2</v>
+      </c>
+      <c r="B58">
         <v>3.7</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>1.2030000000000001</v>
-      </c>
-      <c r="C58">
-        <v>-7.2999999999999995E-2</v>
       </c>
       <c r="D58">
         <v>-0.82499999999999996</v>
@@ -16929,13 +17110,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="B59">
         <v>3.8</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>1.2350000000000001</v>
-      </c>
-      <c r="C59">
-        <v>-5.8999999999999997E-2</v>
       </c>
       <c r="D59">
         <v>-0.79800000000000004</v>
@@ -16946,13 +17127,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
+        <v>-4.8000000000000001E-2</v>
+      </c>
+      <c r="B60">
         <v>3.9</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>1.268</v>
-      </c>
-      <c r="C60">
-        <v>-4.8000000000000001E-2</v>
       </c>
       <c r="D60">
         <v>-0.77400000000000002</v>
@@ -16963,13 +17144,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
+        <v>-0.04</v>
+      </c>
+      <c r="B61">
         <v>4</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>1.3</v>
-      </c>
-      <c r="C61">
-        <v>-0.04</v>
       </c>
       <c r="D61">
         <v>-0.754</v>
@@ -16980,13 +17161,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="B62">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>1.333</v>
-      </c>
-      <c r="C62">
-        <v>-3.3000000000000002E-2</v>
       </c>
       <c r="D62">
         <v>-0.73699999999999999</v>
@@ -16997,13 +17178,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
+        <v>-2.8000000000000001E-2</v>
+      </c>
+      <c r="B63">
         <v>4.2</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>1.365</v>
-      </c>
-      <c r="C63">
-        <v>-2.8000000000000001E-2</v>
       </c>
       <c r="D63">
         <v>-0.72199999999999998</v>
@@ -17014,13 +17195,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="B64">
         <v>4.3</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>1.3979999999999999</v>
-      </c>
-      <c r="C64">
-        <v>-2.4E-2</v>
       </c>
       <c r="D64">
         <v>-0.70799999999999996</v>
@@ -17031,13 +17212,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
+        <v>-0.02</v>
+      </c>
+      <c r="B65">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>1.43</v>
-      </c>
-      <c r="C65">
-        <v>-0.02</v>
       </c>
       <c r="D65">
         <v>-0.69599999999999995</v>
@@ -17048,13 +17229,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="B66">
         <v>4.5</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>1.4630000000000001</v>
-      </c>
-      <c r="C66">
-        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="D66">
         <v>-0.68600000000000005</v>
@@ -17065,7 +17246,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="F30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17076,24 +17257,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O56" sqref="O56"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="5" width="18" customWidth="1"/>
+    <col min="9" max="14" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -17102,15 +17284,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>-1.105</v>
+      </c>
+      <c r="B2">
         <v>-1.9</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>-0.49399999999999999</v>
-      </c>
-      <c r="C2">
-        <v>-1.105</v>
       </c>
       <c r="D2">
         <v>-0.45800000000000002</v>
@@ -17119,15 +17301,15 @@
         <v>-3.6469999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>-0.96399999999999997</v>
+      </c>
+      <c r="B3">
         <v>-1.8</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>-0.46800000000000003</v>
-      </c>
-      <c r="C3">
-        <v>-0.96399999999999997</v>
       </c>
       <c r="D3">
         <v>-0.45800000000000002</v>
@@ -17136,15 +17318,15 @@
         <v>-3.5230000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>-0.83899999999999997</v>
+      </c>
+      <c r="B4">
         <v>-1.7</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>-0.442</v>
-      </c>
-      <c r="C4">
-        <v>-0.83899999999999997</v>
       </c>
       <c r="D4">
         <v>-0.45800000000000002</v>
@@ -17152,16 +17334,31 @@
       <c r="E4">
         <v>-3.399</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>-0.72799999999999998</v>
+      </c>
+      <c r="B5">
         <v>-1.6</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>-0.41599999999999998</v>
-      </c>
-      <c r="C5">
-        <v>-0.72799999999999998</v>
       </c>
       <c r="D5">
         <v>-0.45800000000000002</v>
@@ -17169,16 +17366,31 @@
       <c r="E5">
         <v>-3.2749999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I5" s="7">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>-0.629</v>
+      </c>
+      <c r="B6">
         <v>-1.5</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>-0.39</v>
-      </c>
-      <c r="C6">
-        <v>-0.629</v>
       </c>
       <c r="D6">
         <v>-0.45800000000000002</v>
@@ -17186,16 +17398,31 @@
       <c r="E6">
         <v>-3.1520000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I6" s="7">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.442</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>-0.54100000000000004</v>
+      </c>
+      <c r="B7">
         <v>-1.4</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>-0.36399999999999999</v>
-      </c>
-      <c r="C7">
-        <v>-0.54100000000000004</v>
       </c>
       <c r="D7">
         <v>-0.45800000000000002</v>
@@ -17204,15 +17431,15 @@
         <v>-3.0289999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>-0.46300000000000002</v>
+      </c>
+      <c r="B8">
         <v>-1.3</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>-0.33800000000000002</v>
-      </c>
-      <c r="C8">
-        <v>-0.46300000000000002</v>
       </c>
       <c r="D8">
         <v>-0.45800000000000002</v>
@@ -17220,16 +17447,31 @@
       <c r="E8">
         <v>-2.9060000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>-0.39500000000000002</v>
+      </c>
+      <c r="B9">
         <v>-1.2</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>-0.312</v>
-      </c>
-      <c r="C9">
-        <v>-0.39500000000000002</v>
       </c>
       <c r="D9">
         <v>-0.45800000000000002</v>
@@ -17237,16 +17479,31 @@
       <c r="E9">
         <v>-2.7829999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I9" s="7">
+        <v>9.4E-2</v>
+      </c>
+      <c r="J9" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>-0.33400000000000002</v>
+      </c>
+      <c r="B10">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>-0.28599999999999998</v>
-      </c>
-      <c r="C10">
-        <v>-0.33400000000000002</v>
       </c>
       <c r="D10">
         <v>-0.45900000000000002</v>
@@ -17254,16 +17511,31 @@
       <c r="E10">
         <v>-2.66</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I10" s="7">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="J10" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="B11">
         <v>-1</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>-0.26</v>
-      </c>
-      <c r="C11">
-        <v>-0.28000000000000003</v>
       </c>
       <c r="D11">
         <v>-0.45900000000000002</v>
@@ -17272,15 +17544,15 @@
         <v>-2.5369999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>-0.23300000000000001</v>
+      </c>
+      <c r="B12">
         <v>-0.9</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>-0.23400000000000001</v>
-      </c>
-      <c r="C12">
-        <v>-0.23300000000000001</v>
       </c>
       <c r="D12">
         <v>-0.46</v>
@@ -17288,16 +17560,31 @@
       <c r="E12">
         <v>-2.415</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>-0.192</v>
+      </c>
+      <c r="B13">
         <v>-0.8</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>-0.20799999999999999</v>
-      </c>
-      <c r="C13">
-        <v>-0.192</v>
       </c>
       <c r="D13">
         <v>-0.46200000000000002</v>
@@ -17305,16 +17592,31 @@
       <c r="E13">
         <v>-2.2919999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I13" s="7">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="J13" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="L13" s="7">
+        <v>-36.615000000000002</v>
+      </c>
+      <c r="M13" s="7">
+        <v>-1.4119999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>-0.155</v>
+      </c>
+      <c r="B14">
         <v>-0.7</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>-0.182</v>
-      </c>
-      <c r="C14">
-        <v>-0.155</v>
       </c>
       <c r="D14">
         <v>-0.46300000000000002</v>
@@ -17322,16 +17624,31 @@
       <c r="E14">
         <v>-2.17</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I14" s="7">
+        <v>-0.73299999999999998</v>
+      </c>
+      <c r="J14" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="K14" s="7">
+        <v>1.014</v>
+      </c>
+      <c r="L14" s="7">
+        <v>40.688000000000002</v>
+      </c>
+      <c r="M14" s="7">
+        <v>-1.2030000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>-0.123</v>
+      </c>
+      <c r="B15">
         <v>-0.6</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>-0.156</v>
-      </c>
-      <c r="C15">
-        <v>-0.123</v>
       </c>
       <c r="D15">
         <v>-0.46500000000000002</v>
@@ -17340,15 +17657,15 @@
         <v>-2.0470000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>-9.5000000000000001E-2</v>
+      </c>
+      <c r="B16">
         <v>-0.5</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>-0.13</v>
-      </c>
-      <c r="C16">
-        <v>-9.5000000000000001E-2</v>
       </c>
       <c r="D16">
         <v>-0.46800000000000003</v>
@@ -17359,13 +17676,13 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="B17">
         <v>-0.4</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>-0.104</v>
-      </c>
-      <c r="C17">
-        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="D17">
         <v>-0.47099999999999997</v>
@@ -17376,13 +17693,13 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+      <c r="B18">
         <v>-0.3</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>-7.8E-2</v>
-      </c>
-      <c r="C18">
-        <v>-4.9000000000000002E-2</v>
       </c>
       <c r="D18">
         <v>-0.47499999999999998</v>
@@ -17393,13 +17710,13 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>-0.03</v>
+      </c>
+      <c r="B19">
         <v>-0.2</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>-5.1999999999999998E-2</v>
-      </c>
-      <c r="C19">
-        <v>-0.03</v>
       </c>
       <c r="D19">
         <v>-0.48099999999999998</v>
@@ -17410,13 +17727,13 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="B20">
         <v>-0.1</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>-2.5999999999999999E-2</v>
-      </c>
-      <c r="C20">
-        <v>-1.4E-2</v>
       </c>
       <c r="D20">
         <v>-0.48899999999999999</v>
@@ -17444,13 +17761,13 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>1.2E-2</v>
+      </c>
+      <c r="B22">
         <v>0.1</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="C22">
-        <v>1.2E-2</v>
       </c>
       <c r="D22">
         <v>-0.51600000000000001</v>
@@ -17461,13 +17778,13 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="B23">
         <v>0.2</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="C23">
-        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D23">
         <v>-0.54200000000000004</v>
@@ -17478,13 +17795,13 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>3.1E-2</v>
+      </c>
+      <c r="B24">
         <v>0.3</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>7.8E-2</v>
-      </c>
-      <c r="C24">
-        <v>3.1E-2</v>
       </c>
       <c r="D24">
         <v>-0.59499999999999997</v>
@@ -17495,13 +17812,13 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>3.9E-2</v>
+      </c>
+      <c r="B25">
         <v>0.4</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>0.104</v>
-      </c>
-      <c r="C25">
-        <v>3.9E-2</v>
       </c>
       <c r="D25" t="s">
         <v>89</v>
@@ -17512,13 +17829,13 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="B26">
         <v>0.5</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>0.13</v>
-      </c>
-      <c r="C26">
-        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D26" t="s">
         <v>91</v>
@@ -17529,13 +17846,13 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="B27">
         <v>0.6</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>0.156</v>
-      </c>
-      <c r="C27">
-        <v>5.0999999999999997E-2</v>
       </c>
       <c r="D27" t="s">
         <v>93</v>
@@ -17546,13 +17863,13 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>5.5E-2</v>
+      </c>
+      <c r="B28">
         <v>0.7</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>0.182</v>
-      </c>
-      <c r="C28">
-        <v>5.5E-2</v>
       </c>
       <c r="D28" t="s">
         <v>95</v>
@@ -17563,13 +17880,13 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="B29">
         <v>0.8</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>0.20799999999999999</v>
-      </c>
-      <c r="C29">
-        <v>5.8999999999999997E-2</v>
       </c>
       <c r="D29" t="s">
         <v>97</v>
@@ -17578,15 +17895,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>6.2E-2</v>
+      </c>
+      <c r="B30">
         <v>0.9</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>0.23400000000000001</v>
-      </c>
-      <c r="C30">
-        <v>6.2E-2</v>
       </c>
       <c r="D30" t="s">
         <v>99</v>
@@ -17594,19 +17911,16 @@
       <c r="E30" t="s">
         <v>100</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>220</v>
-      </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="B31">
         <v>1</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>0.26</v>
-      </c>
-      <c r="C31">
-        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D31" t="s">
         <v>101</v>
@@ -17614,36 +17928,36 @@
       <c r="E31" t="s">
         <v>102</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="2" t="s">
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="L31" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="M31" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="N31" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="B32">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>0.28599999999999998</v>
-      </c>
-      <c r="C32">
-        <v>6.7000000000000004E-2</v>
       </c>
       <c r="D32" t="s">
         <v>103</v>
@@ -17654,13 +17968,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="B33">
         <v>1.2</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>0.312</v>
-      </c>
-      <c r="C33">
-        <v>6.8000000000000005E-2</v>
       </c>
       <c r="D33" t="s">
         <v>105</v>
@@ -17671,13 +17985,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B34">
         <v>1.3</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>0.33800000000000002</v>
-      </c>
-      <c r="C34">
-        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D34" t="s">
         <v>107</v>
@@ -17688,13 +18002,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="B35">
         <v>1.4</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>0.36399999999999999</v>
-      </c>
-      <c r="C35">
-        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D35" t="s">
         <v>109</v>
@@ -17705,13 +18019,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="B36">
         <v>1.5</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>0.39</v>
-      </c>
-      <c r="C36">
-        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D36" t="s">
         <v>111</v>
@@ -17722,13 +18036,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="B37">
         <v>1.6</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>0.41599999999999998</v>
-      </c>
-      <c r="C37">
-        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D37" t="s">
         <v>113</v>
@@ -17739,13 +18053,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="B38">
         <v>1.7</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>0.442</v>
-      </c>
-      <c r="C38">
-        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D38" t="s">
         <v>115</v>
@@ -17756,13 +18070,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="B39">
         <v>1.8</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>0.46800000000000003</v>
-      </c>
-      <c r="C39">
-        <v>7.2999999999999995E-2</v>
       </c>
       <c r="D39" t="s">
         <v>117</v>
@@ -17773,13 +18087,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="B40">
         <v>1.9</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>0.49399999999999999</v>
-      </c>
-      <c r="C40">
-        <v>7.2999999999999995E-2</v>
       </c>
       <c r="D40" t="s">
         <v>119</v>
@@ -17790,13 +18104,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="B41">
         <v>2</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>0.52</v>
-      </c>
-      <c r="C41">
-        <v>7.2999999999999995E-2</v>
       </c>
       <c r="D41" t="s">
         <v>121</v>
@@ -17807,13 +18121,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="B42">
         <v>2.1</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>0.54600000000000004</v>
-      </c>
-      <c r="C42">
-        <v>7.3999999999999996E-2</v>
       </c>
       <c r="D42" t="s">
         <v>123</v>
@@ -17824,13 +18138,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="B43">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>0.57199999999999995</v>
-      </c>
-      <c r="C43">
-        <v>7.3999999999999996E-2</v>
       </c>
       <c r="D43" t="s">
         <v>125</v>
@@ -17841,13 +18155,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="B44">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>0.59799999999999998</v>
-      </c>
-      <c r="C44">
-        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D44" t="s">
         <v>127</v>
@@ -17858,13 +18172,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="B45">
         <v>2.4</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>0.624</v>
-      </c>
-      <c r="C45">
-        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D45" t="s">
         <v>129</v>
@@ -17875,13 +18189,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="B46">
         <v>2.5</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>0.65</v>
-      </c>
-      <c r="C46">
-        <v>7.5999999999999998E-2</v>
       </c>
       <c r="D46" t="s">
         <v>131</v>
@@ -17892,13 +18206,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="B47">
         <v>2.6</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>0.67600000000000005</v>
-      </c>
-      <c r="C47">
-        <v>7.6999999999999999E-2</v>
       </c>
       <c r="D47" t="s">
         <v>133</v>
@@ -17909,13 +18223,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="B48">
         <v>2.7</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>0.70199999999999996</v>
-      </c>
-      <c r="C48">
-        <v>7.9000000000000001E-2</v>
       </c>
       <c r="D48" t="s">
         <v>135</v>
@@ -17926,13 +18240,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="B49">
         <v>2.8</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>0.72799999999999998</v>
-      </c>
-      <c r="C49">
-        <v>8.1000000000000003E-2</v>
       </c>
       <c r="D49" t="s">
         <v>137</v>
@@ -17943,13 +18257,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="B50">
         <v>2.9</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>0.754</v>
-      </c>
-      <c r="C50">
-        <v>8.4000000000000005E-2</v>
       </c>
       <c r="D50" t="s">
         <v>139</v>
@@ -17960,13 +18274,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="B51">
         <v>3</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>0.78</v>
-      </c>
-      <c r="C51">
-        <v>8.7999999999999995E-2</v>
       </c>
       <c r="D51" t="s">
         <v>141</v>
@@ -17977,13 +18291,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
+        <v>9.4E-2</v>
+      </c>
+      <c r="B52">
         <v>3.1</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>0.80600000000000005</v>
-      </c>
-      <c r="C52">
-        <v>9.4E-2</v>
       </c>
       <c r="D52" t="s">
         <v>143</v>
@@ -17994,13 +18308,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="B53">
         <v>3.2</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>0.83199999999999996</v>
-      </c>
-      <c r="C53">
-        <v>0.10100000000000001</v>
       </c>
       <c r="D53" t="s">
         <v>145</v>
@@ -18011,13 +18325,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
+        <v>0.111</v>
+      </c>
+      <c r="B54">
         <v>3.3</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>0.85799999999999998</v>
-      </c>
-      <c r="C54">
-        <v>0.111</v>
       </c>
       <c r="D54" t="s">
         <v>147</v>
@@ -18028,13 +18342,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
+        <v>0.127</v>
+      </c>
+      <c r="B55">
         <v>3.4</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>0.88400000000000001</v>
-      </c>
-      <c r="C55">
-        <v>0.127</v>
       </c>
       <c r="D55" t="s">
         <v>149</v>
@@ -18045,13 +18359,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
+        <v>0.153</v>
+      </c>
+      <c r="B56">
         <v>3.5</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>0.91</v>
-      </c>
-      <c r="C56">
-        <v>0.153</v>
       </c>
       <c r="D56" t="s">
         <v>151</v>
@@ -18062,13 +18376,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
+        <v>0.2</v>
+      </c>
+      <c r="B57">
         <v>3.6</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>0.93600000000000005</v>
-      </c>
-      <c r="C57">
-        <v>0.2</v>
       </c>
       <c r="D57" t="s">
         <v>153</v>
@@ -18079,13 +18393,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
+        <v>0.313</v>
+      </c>
+      <c r="B58">
         <v>3.7</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>0.96199999999999997</v>
-      </c>
-      <c r="C58">
-        <v>0.313</v>
       </c>
       <c r="D58">
         <v>-7.7510000000000003</v>
@@ -18096,13 +18410,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="B59">
         <v>3.8</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>0.98799999999999999</v>
-      </c>
-      <c r="C59">
-        <v>0.92100000000000004</v>
       </c>
       <c r="D59">
         <v>-36.615000000000002</v>
@@ -18113,13 +18427,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
+        <v>-0.73299999999999998</v>
+      </c>
+      <c r="B60">
         <v>3.9</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>1.014</v>
-      </c>
-      <c r="C60">
-        <v>-0.73299999999999998</v>
       </c>
       <c r="D60">
         <v>40.688000000000002</v>
@@ -18130,13 +18444,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
+        <v>-0.23799999999999999</v>
+      </c>
+      <c r="B61">
         <v>4</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>1.04</v>
-      </c>
-      <c r="C61">
-        <v>-0.23799999999999999</v>
       </c>
       <c r="D61">
         <v>17.478000000000002</v>
@@ -18147,13 +18461,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
+        <v>-0.13400000000000001</v>
+      </c>
+      <c r="B62">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>1.0660000000000001</v>
-      </c>
-      <c r="C62">
-        <v>-0.13400000000000001</v>
       </c>
       <c r="D62">
         <v>12.599</v>
@@ -18164,13 +18478,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
+        <v>-8.8999999999999996E-2</v>
+      </c>
+      <c r="B63">
         <v>4.2</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>1.0920000000000001</v>
-      </c>
-      <c r="C63">
-        <v>-8.8999999999999996E-2</v>
       </c>
       <c r="D63">
         <v>10.525</v>
@@ -18181,13 +18495,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
+        <v>-6.4000000000000001E-2</v>
+      </c>
+      <c r="B64">
         <v>4.3</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>1.1180000000000001</v>
-      </c>
-      <c r="C64">
-        <v>-6.4000000000000001E-2</v>
       </c>
       <c r="D64">
         <v>-0.88200000000000001</v>
@@ -18198,13 +18512,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+      <c r="B65">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>1.1439999999999999</v>
-      </c>
-      <c r="C65">
-        <v>-4.9000000000000002E-2</v>
       </c>
       <c r="D65">
         <v>-0.84399999999999997</v>
@@ -18215,13 +18529,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="B66">
         <v>4.5</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>1.17</v>
-      </c>
-      <c r="C66">
-        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="D66">
         <v>-0.81299999999999994</v>
@@ -18244,23 +18558,26 @@
   <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+      <selection activeCell="I7" sqref="I7:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="5" width="17" customWidth="1"/>
+    <col min="9" max="11" width="13.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -18269,15 +18586,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>-0.97499999999999998</v>
+      </c>
+      <c r="B2">
         <v>-1.9</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>-0.41199999999999998</v>
-      </c>
-      <c r="C2">
-        <v>-0.97499999999999998</v>
       </c>
       <c r="D2">
         <v>-0.46300000000000002</v>
@@ -18286,15 +18603,15 @@
         <v>-3.661</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>-0.84899999999999998</v>
+      </c>
+      <c r="B3">
         <v>-1.8</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>-0.39</v>
-      </c>
-      <c r="C3">
-        <v>-0.84899999999999998</v>
       </c>
       <c r="D3">
         <v>-0.46300000000000002</v>
@@ -18302,16 +18619,31 @@
       <c r="E3">
         <v>-3.5369999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>-0.73699999999999999</v>
+      </c>
+      <c r="B4">
         <v>-1.7</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>-0.36799999999999999</v>
-      </c>
-      <c r="C4">
-        <v>-0.73699999999999999</v>
       </c>
       <c r="D4">
         <v>-0.46300000000000002</v>
@@ -18319,16 +18651,31 @@
       <c r="E4">
         <v>-3.4119999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I4" s="7">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>-0.63800000000000001</v>
+      </c>
+      <c r="B5">
         <v>-1.6</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>-0.34699999999999998</v>
-      </c>
-      <c r="C5">
-        <v>-0.63800000000000001</v>
       </c>
       <c r="D5">
         <v>-0.46300000000000002</v>
@@ -18336,16 +18683,31 @@
       <c r="E5">
         <v>-3.2879999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I5" s="7">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="L5" s="7">
+        <v>-0.16400000000000001</v>
+      </c>
+      <c r="M5" s="7">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="B6">
         <v>-1.5</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>-0.32500000000000001</v>
-      </c>
-      <c r="C6">
-        <v>-0.55000000000000004</v>
       </c>
       <c r="D6">
         <v>-0.46300000000000002</v>
@@ -18353,19 +18715,16 @@
       <c r="E6">
         <v>-3.1640000000000001</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>-0.47199999999999998</v>
+      </c>
+      <c r="B7">
         <v>-1.4</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>-0.30299999999999999</v>
-      </c>
-      <c r="C7">
-        <v>-0.47199999999999998</v>
       </c>
       <c r="D7">
         <v>-0.46300000000000002</v>
@@ -18373,36 +18732,31 @@
       <c r="E7">
         <v>-3.04</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>-0.40300000000000002</v>
+      </c>
+      <c r="B8">
         <v>-1.3</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>-0.28199999999999997</v>
-      </c>
-      <c r="C8">
-        <v>-0.40300000000000002</v>
       </c>
       <c r="D8">
         <v>-0.46400000000000002</v>
@@ -18410,16 +18764,31 @@
       <c r="E8">
         <v>-2.9159999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I8" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="J8" s="7">
+        <v>4</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>-0.34300000000000003</v>
+      </c>
+      <c r="B9">
         <v>-1.2</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>-0.26</v>
-      </c>
-      <c r="C9">
-        <v>-0.34300000000000003</v>
       </c>
       <c r="D9">
         <v>-0.46400000000000002</v>
@@ -18427,16 +18796,31 @@
       <c r="E9">
         <v>-2.7930000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I9" s="7">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="J9" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>-0.28899999999999998</v>
+      </c>
+      <c r="B10">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>-0.23799999999999999</v>
-      </c>
-      <c r="C10">
-        <v>-0.28899999999999998</v>
       </c>
       <c r="D10">
         <v>-0.46500000000000002</v>
@@ -18445,15 +18829,15 @@
         <v>-2.669</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>-0.24199999999999999</v>
+      </c>
+      <c r="B11">
         <v>-1</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>-0.217</v>
-      </c>
-      <c r="C11">
-        <v>-0.24199999999999999</v>
       </c>
       <c r="D11">
         <v>-0.46500000000000002</v>
@@ -18461,16 +18845,21 @@
       <c r="E11">
         <v>-2.5459999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>-0.20100000000000001</v>
+      </c>
+      <c r="B12">
         <v>-0.9</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>-0.19500000000000001</v>
-      </c>
-      <c r="C12">
-        <v>-0.20100000000000001</v>
       </c>
       <c r="D12">
         <v>-0.46600000000000003</v>
@@ -18479,15 +18868,15 @@
         <v>-2.4220000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>-0.16400000000000001</v>
+      </c>
+      <c r="B13">
         <v>-0.8</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>-0.17299999999999999</v>
-      </c>
-      <c r="C13">
-        <v>-0.16400000000000001</v>
       </c>
       <c r="D13">
         <v>-0.46700000000000003</v>
@@ -18496,15 +18885,15 @@
         <v>-2.2989999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>-0.13300000000000001</v>
+      </c>
+      <c r="B14">
         <v>-0.7</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>-0.152</v>
-      </c>
-      <c r="C14">
-        <v>-0.13300000000000001</v>
       </c>
       <c r="D14">
         <v>-0.46899999999999997</v>
@@ -18513,15 +18902,15 @@
         <v>-2.1760000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>-0.105</v>
+      </c>
+      <c r="B15">
         <v>-0.6</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>-0.13</v>
-      </c>
-      <c r="C15">
-        <v>-0.105</v>
       </c>
       <c r="D15">
         <v>-0.47</v>
@@ -18530,15 +18919,15 @@
         <v>-2.052</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>-8.1000000000000003E-2</v>
+      </c>
+      <c r="B16">
         <v>-0.5</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>-0.108</v>
-      </c>
-      <c r="C16">
-        <v>-8.1000000000000003E-2</v>
       </c>
       <c r="D16">
         <v>-0.47299999999999998</v>
@@ -18547,15 +18936,15 @@
         <v>-1.9279999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="B17">
         <v>-0.4</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>-8.6999999999999994E-2</v>
-      </c>
-      <c r="C17">
-        <v>-5.8999999999999997E-2</v>
       </c>
       <c r="D17">
         <v>-0.47599999999999998</v>
@@ -18564,15 +18953,15 @@
         <v>-1.8049999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>-4.1000000000000002E-2</v>
+      </c>
+      <c r="B18">
         <v>-0.3</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>-6.5000000000000002E-2</v>
-      </c>
-      <c r="C18">
-        <v>-4.1000000000000002E-2</v>
       </c>
       <c r="D18">
         <v>-0.47899999999999998</v>
@@ -18581,15 +18970,15 @@
         <v>-1.68</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="B19">
         <v>-0.2</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>-4.2999999999999997E-2</v>
-      </c>
-      <c r="C19">
-        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="D19">
         <v>-0.48399999999999999</v>
@@ -18598,15 +18987,15 @@
         <v>-1.5549999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="B20">
         <v>-0.1</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>-2.1999999999999999E-2</v>
-      </c>
-      <c r="C20">
-        <v>-1.2E-2</v>
       </c>
       <c r="D20">
         <v>-0.49099999999999999</v>
@@ -18614,8 +19003,28 @@
       <c r="E20">
         <v>-1.429</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -18632,15 +19041,15 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>0.01</v>
+      </c>
+      <c r="B22">
         <v>0.1</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="C22">
-        <v>0.01</v>
       </c>
       <c r="D22">
         <v>-0.51300000000000001</v>
@@ -18649,15 +19058,15 @@
         <v>-1.1679999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>1.9E-2</v>
+      </c>
+      <c r="B23">
         <v>0.2</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="C23">
-        <v>1.9E-2</v>
       </c>
       <c r="D23">
         <v>-0.53400000000000003</v>
@@ -18666,15 +19075,15 @@
         <v>-1.028</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="B24">
         <v>0.3</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="C24">
-        <v>2.5999999999999999E-2</v>
       </c>
       <c r="D24">
         <v>-0.57499999999999996</v>
@@ -18683,15 +19092,15 @@
         <v>-0.87</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="B25">
         <v>0.4</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="C25">
-        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D25" t="s">
         <v>155</v>
@@ -18700,15 +19109,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="B26">
         <v>0.5</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>0.108</v>
-      </c>
-      <c r="C26">
-        <v>3.6999999999999998E-2</v>
       </c>
       <c r="D26" t="s">
         <v>157</v>
@@ -18717,15 +19126,15 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="B27">
         <v>0.6</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>0.13</v>
-      </c>
-      <c r="C27">
-        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D27" t="s">
         <v>159</v>
@@ -18734,15 +19143,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="B28">
         <v>0.7</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>0.152</v>
-      </c>
-      <c r="C28">
-        <v>4.3999999999999997E-2</v>
       </c>
       <c r="D28" t="s">
         <v>161</v>
@@ -18751,15 +19160,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>4.7E-2</v>
+      </c>
+      <c r="B29">
         <v>0.8</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>0.17299999999999999</v>
-      </c>
-      <c r="C29">
-        <v>4.7E-2</v>
       </c>
       <c r="D29" t="s">
         <v>163</v>
@@ -18768,15 +19177,15 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="B30">
         <v>0.9</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>0.19500000000000001</v>
-      </c>
-      <c r="C30">
-        <v>4.9000000000000002E-2</v>
       </c>
       <c r="D30" t="s">
         <v>165</v>
@@ -18785,15 +19194,15 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="B31">
         <v>1</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>0.217</v>
-      </c>
-      <c r="C31">
-        <v>5.0999999999999997E-2</v>
       </c>
       <c r="D31" t="s">
         <v>167</v>
@@ -18802,15 +19211,15 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="B32">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>0.23799999999999999</v>
-      </c>
-      <c r="C32">
-        <v>5.1999999999999998E-2</v>
       </c>
       <c r="D32" t="s">
         <v>169</v>
@@ -18821,13 +19230,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="B33">
         <v>1.2</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>0.26</v>
-      </c>
-      <c r="C33">
-        <v>5.2999999999999999E-2</v>
       </c>
       <c r="D33" t="s">
         <v>171</v>
@@ -18838,13 +19247,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="B34">
         <v>1.3</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>0.28199999999999997</v>
-      </c>
-      <c r="C34">
-        <v>5.2999999999999999E-2</v>
       </c>
       <c r="D34" t="s">
         <v>173</v>
@@ -18855,13 +19264,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="B35">
         <v>1.4</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>0.30299999999999999</v>
-      </c>
-      <c r="C35">
-        <v>5.3999999999999999E-2</v>
       </c>
       <c r="D35" t="s">
         <v>175</v>
@@ -18872,13 +19281,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="B36">
         <v>1.5</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>0.32500000000000001</v>
-      </c>
-      <c r="C36">
-        <v>5.3999999999999999E-2</v>
       </c>
       <c r="D36">
         <v>-0.16400000000000001</v>
@@ -18889,13 +19298,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="B37">
         <v>1.6</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>0.34699999999999998</v>
-      </c>
-      <c r="C37">
-        <v>5.3999999999999999E-2</v>
       </c>
       <c r="D37">
         <v>-0.20499999999999999</v>
@@ -18906,13 +19315,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="B38">
         <v>1.7</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>0.36799999999999999</v>
-      </c>
-      <c r="C38">
-        <v>5.2999999999999999E-2</v>
       </c>
       <c r="D38">
         <v>-0.223</v>
@@ -18923,13 +19332,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="B39">
         <v>1.8</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>0.39</v>
-      </c>
-      <c r="C39">
-        <v>5.2999999999999999E-2</v>
       </c>
       <c r="D39">
         <v>-0.23100000000000001</v>
@@ -18940,13 +19349,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="B40">
         <v>1.9</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>0.41199999999999998</v>
-      </c>
-      <c r="C40">
-        <v>5.1999999999999998E-2</v>
       </c>
       <c r="D40">
         <v>-0.23499999999999999</v>
@@ -18957,13 +19366,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="B41">
         <v>2</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>0.433</v>
-      </c>
-      <c r="C41">
-        <v>5.1999999999999998E-2</v>
       </c>
       <c r="D41">
         <v>-0.23499999999999999</v>
@@ -18974,13 +19383,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="B42">
         <v>2.1</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>0.45500000000000002</v>
-      </c>
-      <c r="C42">
-        <v>5.0999999999999997E-2</v>
       </c>
       <c r="D42">
         <v>-0.23200000000000001</v>
@@ -18991,13 +19400,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
+        <v>0.05</v>
+      </c>
+      <c r="B43">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>0.47699999999999998</v>
-      </c>
-      <c r="C43">
-        <v>0.05</v>
       </c>
       <c r="D43">
         <v>-0.22600000000000001</v>
@@ -19008,13 +19417,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
+        <v>0.05</v>
+      </c>
+      <c r="B44">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>0.498</v>
-      </c>
-      <c r="C44">
-        <v>0.05</v>
       </c>
       <c r="D44">
         <v>-0.219</v>
@@ -19025,13 +19434,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="B45">
         <v>2.4</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>0.52</v>
-      </c>
-      <c r="C45">
-        <v>4.9000000000000002E-2</v>
       </c>
       <c r="D45">
         <v>-0.20899999999999999</v>
@@ -19042,13 +19451,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="B46">
         <v>2.5</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>0.54200000000000004</v>
-      </c>
-      <c r="C46">
-        <v>4.9000000000000002E-2</v>
       </c>
       <c r="D46">
         <v>-0.19600000000000001</v>
@@ -19059,13 +19468,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="B47">
         <v>2.6</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>0.56299999999999994</v>
-      </c>
-      <c r="C47">
-        <v>4.8000000000000001E-2</v>
       </c>
       <c r="D47">
         <v>-0.18099999999999999</v>
@@ -19076,13 +19485,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
+        <v>4.7E-2</v>
+      </c>
+      <c r="B48">
         <v>2.7</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>0.58499999999999996</v>
-      </c>
-      <c r="C48">
-        <v>4.7E-2</v>
       </c>
       <c r="D48">
         <v>-0.16200000000000001</v>
@@ -19093,13 +19502,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
+        <v>4.7E-2</v>
+      </c>
+      <c r="B49">
         <v>2.8</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>0.60699999999999998</v>
-      </c>
-      <c r="C49">
-        <v>4.7E-2</v>
       </c>
       <c r="D49">
         <v>-0.13900000000000001</v>
@@ -19110,13 +19519,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>4.7E-2</v>
+      </c>
+      <c r="B50">
         <v>2.9</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>0.628</v>
-      </c>
-      <c r="C50">
-        <v>4.7E-2</v>
       </c>
       <c r="D50">
         <v>-0.11</v>
@@ -19127,13 +19536,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="B51">
         <v>3</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>0.65</v>
-      </c>
-      <c r="C51">
-        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D51">
         <v>-7.4999999999999997E-2</v>
@@ -19144,13 +19553,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="B52">
         <v>3.1</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>0.67200000000000004</v>
-      </c>
-      <c r="C52">
-        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D52">
         <v>-2.9000000000000001E-2</v>
@@ -19161,13 +19570,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="B53">
         <v>3.2</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>0.69299999999999995</v>
-      </c>
-      <c r="C53">
-        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D53">
         <v>3.3000000000000002E-2</v>
@@ -19178,13 +19587,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="B54">
         <v>3.3</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>0.71499999999999997</v>
-      </c>
-      <c r="C54">
-        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D54">
         <v>0.122</v>
@@ -19195,13 +19604,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
+        <v>4.7E-2</v>
+      </c>
+      <c r="B55">
         <v>3.4</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>0.73699999999999999</v>
-      </c>
-      <c r="C55">
-        <v>4.7E-2</v>
       </c>
       <c r="D55">
         <v>0.27200000000000002</v>
@@ -19212,13 +19621,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
+        <v>4.7E-2</v>
+      </c>
+      <c r="B56">
         <v>3.5</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>0.75800000000000001</v>
-      </c>
-      <c r="C56">
-        <v>4.7E-2</v>
       </c>
       <c r="D56" t="s">
         <v>177</v>
@@ -19229,13 +19638,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="B57">
         <v>3.6</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>0.78</v>
-      </c>
-      <c r="C57">
-        <v>4.8000000000000001E-2</v>
       </c>
       <c r="D57" t="s">
         <v>179</v>
@@ -19246,13 +19655,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
+        <v>0.05</v>
+      </c>
+      <c r="B58">
         <v>3.7</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>0.80200000000000005</v>
-      </c>
-      <c r="C58">
-        <v>0.05</v>
       </c>
       <c r="D58" t="s">
         <v>181</v>
@@ -19263,13 +19672,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="B59">
         <v>3.8</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>0.82299999999999995</v>
-      </c>
-      <c r="C59">
-        <v>5.1999999999999998E-2</v>
       </c>
       <c r="D59" t="s">
         <v>183</v>
@@ -19280,13 +19689,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
+        <v>5.5E-2</v>
+      </c>
+      <c r="B60">
         <v>3.9</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>0.84499999999999997</v>
-      </c>
-      <c r="C60">
-        <v>5.5E-2</v>
       </c>
       <c r="D60" t="s">
         <v>185</v>
@@ -19297,13 +19706,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
+        <v>0.06</v>
+      </c>
+      <c r="B61">
         <v>4</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>0.86699999999999999</v>
-      </c>
-      <c r="C61">
-        <v>0.06</v>
       </c>
       <c r="D61" t="s">
         <v>187</v>
@@ -19314,13 +19723,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="B62">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>0.88800000000000001</v>
-      </c>
-      <c r="C62">
-        <v>6.6000000000000003E-2</v>
       </c>
       <c r="D62" t="s">
         <v>189</v>
@@ -19331,13 +19740,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="B63">
         <v>4.2</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>0.91</v>
-      </c>
-      <c r="C63">
-        <v>7.5999999999999998E-2</v>
       </c>
       <c r="D63" t="s">
         <v>191</v>
@@ -19348,13 +19757,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="B64">
         <v>4.3</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>0.93200000000000005</v>
-      </c>
-      <c r="C64">
-        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D64" t="s">
         <v>193</v>
@@ -19365,13 +19774,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
+        <v>0.125</v>
+      </c>
+      <c r="B65">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>0.95299999999999996</v>
-      </c>
-      <c r="C65">
-        <v>0.125</v>
       </c>
       <c r="D65" t="s">
         <v>195</v>
@@ -19382,13 +19791,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
+        <v>0.217</v>
+      </c>
+      <c r="B66">
         <v>4.5</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>0.97499999999999998</v>
-      </c>
-      <c r="C66">
-        <v>0.217</v>
       </c>
       <c r="D66">
         <v>-13.775</v>
@@ -19399,7 +19808,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G20:I20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19410,8 +19819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19421,13 +19830,13 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -19438,13 +19847,13 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>-0.872</v>
+      </c>
+      <c r="B2">
         <v>-1.9</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>-0.35299999999999998</v>
-      </c>
-      <c r="C2">
-        <v>-0.872</v>
       </c>
       <c r="D2">
         <v>-0.46700000000000003</v>
@@ -19452,16 +19861,31 @@
       <c r="E2">
         <v>-3.6720000000000002</v>
       </c>
+      <c r="I2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>-0.75800000000000001</v>
+      </c>
+      <c r="B3">
         <v>-1.8</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>-0.33400000000000002</v>
-      </c>
-      <c r="C3">
-        <v>-0.75800000000000001</v>
       </c>
       <c r="D3">
         <v>-0.46700000000000003</v>
@@ -19469,16 +19893,31 @@
       <c r="E3">
         <v>-3.548</v>
       </c>
+      <c r="I3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="J3">
+        <v>1.3</v>
+      </c>
+      <c r="K3">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="L3">
+        <v>-0.214</v>
+      </c>
+      <c r="M3">
+        <v>-5.6000000000000001E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>-0.65700000000000003</v>
+      </c>
+      <c r="B4">
         <v>-1.7</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>-0.316</v>
-      </c>
-      <c r="C4">
-        <v>-0.65700000000000003</v>
       </c>
       <c r="D4">
         <v>-0.46700000000000003</v>
@@ -19486,16 +19925,31 @@
       <c r="E4">
         <v>-3.423</v>
       </c>
+      <c r="I4">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="J4">
+        <v>1.4</v>
+      </c>
+      <c r="K4">
+        <v>0.26</v>
+      </c>
+      <c r="L4">
+        <v>-0.27200000000000002</v>
+      </c>
+      <c r="M4">
+        <v>0.11600000000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>-0.56699999999999995</v>
+      </c>
+      <c r="B5">
         <v>-1.6</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>-0.29699999999999999</v>
-      </c>
-      <c r="C5">
-        <v>-0.56699999999999995</v>
       </c>
       <c r="D5">
         <v>-0.46700000000000003</v>
@@ -19506,13 +19960,13 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>-0.48799999999999999</v>
+      </c>
+      <c r="B6">
         <v>-1.5</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>-0.27900000000000003</v>
-      </c>
-      <c r="C6">
-        <v>-0.48799999999999999</v>
       </c>
       <c r="D6">
         <v>-0.46700000000000003</v>
@@ -19521,15 +19975,15 @@
         <v>-3.1739999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>-0.41799999999999998</v>
+      </c>
+      <c r="B7">
         <v>-1.4</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>-0.26</v>
-      </c>
-      <c r="C7">
-        <v>-0.41799999999999998</v>
       </c>
       <c r="D7">
         <v>-0.46800000000000003</v>
@@ -19537,19 +19991,16 @@
       <c r="E7">
         <v>-3.0489999999999999</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>-0.35699999999999998</v>
+      </c>
+      <c r="B8">
         <v>-1.3</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>-0.24099999999999999</v>
-      </c>
-      <c r="C8">
-        <v>-0.35699999999999998</v>
       </c>
       <c r="D8">
         <v>-0.46800000000000003</v>
@@ -19557,36 +20008,37 @@
       <c r="E8">
         <v>-2.9249999999999998</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="2" t="s">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>222</v>
-      </c>
+      <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>-0.30299999999999999</v>
+      </c>
+      <c r="B9">
         <v>-1.2</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>-0.223</v>
-      </c>
-      <c r="C9">
-        <v>-0.30299999999999999</v>
       </c>
       <c r="D9">
         <v>-0.46800000000000003</v>
@@ -19597,13 +20049,13 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>-0.255</v>
+      </c>
+      <c r="B10">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>-0.20399999999999999</v>
-      </c>
-      <c r="C10">
-        <v>-0.255</v>
       </c>
       <c r="D10">
         <v>-0.46899999999999997</v>
@@ -19614,13 +20066,13 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>-0.21299999999999999</v>
+      </c>
+      <c r="B11">
         <v>-1</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>-0.186</v>
-      </c>
-      <c r="C11">
-        <v>-0.21299999999999999</v>
       </c>
       <c r="D11">
         <v>-0.46899999999999997</v>
@@ -19631,13 +20083,13 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>-0.17599999999999999</v>
+      </c>
+      <c r="B12">
         <v>-0.9</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>-0.16700000000000001</v>
-      </c>
-      <c r="C12">
-        <v>-0.17599999999999999</v>
       </c>
       <c r="D12">
         <v>-0.47</v>
@@ -19648,13 +20100,13 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>-0.14399999999999999</v>
+      </c>
+      <c r="B13">
         <v>-0.8</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>-0.14899999999999999</v>
-      </c>
-      <c r="C13">
-        <v>-0.14399999999999999</v>
       </c>
       <c r="D13">
         <v>-0.47099999999999997</v>
@@ -19665,13 +20117,13 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>-0.11600000000000001</v>
+      </c>
+      <c r="B14">
         <v>-0.7</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>-0.13</v>
-      </c>
-      <c r="C14">
-        <v>-0.11600000000000001</v>
       </c>
       <c r="D14">
         <v>-0.47299999999999998</v>
@@ -19682,13 +20134,13 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>-9.0999999999999998E-2</v>
+      </c>
+      <c r="B15">
         <v>-0.6</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>-0.111</v>
-      </c>
-      <c r="C15">
-        <v>-9.0999999999999998E-2</v>
       </c>
       <c r="D15">
         <v>-0.47399999999999998</v>
@@ -19699,13 +20151,13 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="B16">
         <v>-0.5</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>-9.2999999999999999E-2</v>
-      </c>
-      <c r="C16">
-        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="D16">
         <v>-0.47599999999999998</v>
@@ -19716,13 +20168,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>-5.1999999999999998E-2</v>
+      </c>
+      <c r="B17">
         <v>-0.4</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>-7.3999999999999996E-2</v>
-      </c>
-      <c r="C17">
-        <v>-5.1999999999999998E-2</v>
       </c>
       <c r="D17">
         <v>-0.47899999999999998</v>
@@ -19733,13 +20185,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>-3.5999999999999997E-2</v>
+      </c>
+      <c r="B18">
         <v>-0.3</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>-5.6000000000000001E-2</v>
-      </c>
-      <c r="C18">
-        <v>-3.5999999999999997E-2</v>
       </c>
       <c r="D18">
         <v>-0.48199999999999998</v>
@@ -19750,13 +20202,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="B19">
         <v>-0.2</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>-3.6999999999999998E-2</v>
-      </c>
-      <c r="C19">
-        <v>-2.1999999999999999E-2</v>
       </c>
       <c r="D19">
         <v>-0.48599999999999999</v>
@@ -19767,13 +20219,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>-0.01</v>
+      </c>
+      <c r="B20">
         <v>-0.1</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>-1.9E-2</v>
-      </c>
-      <c r="C20">
-        <v>-0.01</v>
       </c>
       <c r="D20">
         <v>-0.49199999999999999</v>
@@ -19801,13 +20253,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="B22">
         <v>0.1</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>1.9E-2</v>
-      </c>
-      <c r="C22">
-        <v>8.9999999999999993E-3</v>
       </c>
       <c r="D22">
         <v>-0.51100000000000001</v>
@@ -19818,13 +20270,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>1.6E-2</v>
+      </c>
+      <c r="B23">
         <v>0.2</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="C23">
-        <v>1.6E-2</v>
       </c>
       <c r="D23">
         <v>-0.52900000000000003</v>
@@ -19835,13 +20287,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="B24">
         <v>0.3</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="C24">
-        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D24">
         <v>-0.56299999999999994</v>
@@ -19852,13 +20304,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>2.7E-2</v>
+      </c>
+      <c r="B25">
         <v>0.4</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="C25">
-        <v>2.7E-2</v>
       </c>
       <c r="D25" t="s">
         <v>197</v>
@@ -19869,13 +20321,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>3.1E-2</v>
+      </c>
+      <c r="B26">
         <v>0.5</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="C26">
-        <v>3.1E-2</v>
       </c>
       <c r="D26" t="s">
         <v>199</v>
@@ -19886,13 +20338,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="B27">
         <v>0.6</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>0.111</v>
-      </c>
-      <c r="C27">
-        <v>3.4000000000000002E-2</v>
       </c>
       <c r="D27" t="s">
         <v>201</v>
@@ -19903,13 +20355,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="B28">
         <v>0.7</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>0.13</v>
-      </c>
-      <c r="C28">
-        <v>3.6999999999999998E-2</v>
       </c>
       <c r="D28" t="s">
         <v>203</v>
@@ -19920,13 +20372,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>3.9E-2</v>
+      </c>
+      <c r="B29">
         <v>0.8</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>0.14899999999999999</v>
-      </c>
-      <c r="C29">
-        <v>3.9E-2</v>
       </c>
       <c r="D29" t="s">
         <v>205</v>
@@ -19937,13 +20389,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="B30">
         <v>0.9</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>0.16700000000000001</v>
-      </c>
-      <c r="C30">
-        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D30" t="s">
         <v>207</v>
@@ -19954,13 +20406,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="B31">
         <v>1</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>0.186</v>
-      </c>
-      <c r="C31">
-        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D31" t="s">
         <v>209</v>
@@ -19971,13 +20423,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="B32">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>0.20399999999999999</v>
-      </c>
-      <c r="C32">
-        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D32" t="s">
         <v>211</v>
@@ -19988,13 +20440,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="B33">
         <v>1.2</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>0.223</v>
-      </c>
-      <c r="C33">
-        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D33" t="s">
         <v>213</v>
@@ -20005,13 +20457,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="B34">
         <v>1.3</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>0.24099999999999999</v>
-      </c>
-      <c r="C34">
-        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D34">
         <v>-0.214</v>
@@ -20022,13 +20474,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="B35">
         <v>1.4</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>0.26</v>
-      </c>
-      <c r="C35">
-        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D35">
         <v>-0.27200000000000002</v>
@@ -20039,13 +20491,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="B36">
         <v>1.5</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>0.27900000000000003</v>
-      </c>
-      <c r="C36">
-        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D36">
         <v>-0.29399999999999998</v>
@@ -20056,13 +20508,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="B37">
         <v>1.6</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>0.29699999999999999</v>
-      </c>
-      <c r="C37">
-        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D37">
         <v>-0.307</v>
@@ -20073,13 +20525,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="B38">
         <v>1.7</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>0.316</v>
-      </c>
-      <c r="C38">
-        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D38">
         <v>-0.314</v>
@@ -20090,13 +20542,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="B39">
         <v>1.8</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>0.33400000000000002</v>
-      </c>
-      <c r="C39">
-        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D39">
         <v>-0.31900000000000001</v>
@@ -20107,13 +20559,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="B40">
         <v>1.9</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>0.35299999999999998</v>
-      </c>
-      <c r="C40">
-        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D40">
         <v>-0.32100000000000001</v>
@@ -20124,13 +20576,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>0.04</v>
+      </c>
+      <c r="B41">
         <v>2</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>0.371</v>
-      </c>
-      <c r="C41">
-        <v>0.04</v>
       </c>
       <c r="D41">
         <v>-0.32200000000000001</v>
@@ -20141,13 +20593,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>3.9E-2</v>
+      </c>
+      <c r="B42">
         <v>2.1</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>0.39</v>
-      </c>
-      <c r="C42">
-        <v>3.9E-2</v>
       </c>
       <c r="D42">
         <v>-0.32100000000000001</v>
@@ -20158,13 +20610,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="B43">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>0.40899999999999997</v>
-      </c>
-      <c r="C43">
-        <v>3.7999999999999999E-2</v>
       </c>
       <c r="D43">
         <v>-0.32</v>
@@ -20175,13 +20627,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="B44">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>0.42699999999999999</v>
-      </c>
-      <c r="C44">
-        <v>3.6999999999999998E-2</v>
       </c>
       <c r="D44">
         <v>-0.318</v>
@@ -20192,13 +20644,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="B45">
         <v>2.4</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>0.44600000000000001</v>
-      </c>
-      <c r="C45">
-        <v>3.5999999999999997E-2</v>
       </c>
       <c r="D45">
         <v>-0.314</v>
@@ -20209,13 +20661,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="B46">
         <v>2.5</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>0.46400000000000002</v>
-      </c>
-      <c r="C46">
-        <v>3.5999999999999997E-2</v>
       </c>
       <c r="D46">
         <v>-0.31</v>
@@ -20226,13 +20678,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="B47">
         <v>2.6</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>0.48299999999999998</v>
-      </c>
-      <c r="C47">
-        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D47">
         <v>-0.30499999999999999</v>
@@ -20243,13 +20695,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="B48">
         <v>2.7</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>0.501</v>
-      </c>
-      <c r="C48">
-        <v>3.4000000000000002E-2</v>
       </c>
       <c r="D48">
         <v>-0.3</v>
@@ -20260,13 +20712,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="B49">
         <v>2.8</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>0.52</v>
-      </c>
-      <c r="C49">
-        <v>3.3000000000000002E-2</v>
       </c>
       <c r="D49">
         <v>-0.29299999999999998</v>
@@ -20277,13 +20729,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="B50">
         <v>2.9</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>0.53900000000000003</v>
-      </c>
-      <c r="C50">
-        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D50">
         <v>-0.28499999999999998</v>
@@ -20294,13 +20746,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
+        <v>3.1E-2</v>
+      </c>
+      <c r="B51">
         <v>3</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>0.55700000000000005</v>
-      </c>
-      <c r="C51">
-        <v>3.1E-2</v>
       </c>
       <c r="D51">
         <v>-0.27600000000000002</v>
@@ -20311,13 +20763,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
+        <v>3.1E-2</v>
+      </c>
+      <c r="B52">
         <v>3.1</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>0.57599999999999996</v>
-      </c>
-      <c r="C52">
-        <v>3.1E-2</v>
       </c>
       <c r="D52">
         <v>-0.26600000000000001</v>
@@ -20328,13 +20780,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
+        <v>0.03</v>
+      </c>
+      <c r="B53">
         <v>3.2</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>0.59399999999999997</v>
-      </c>
-      <c r="C53">
-        <v>0.03</v>
       </c>
       <c r="D53">
         <v>-0.254</v>
@@ -20345,13 +20797,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="B54">
         <v>3.3</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>0.61299999999999999</v>
-      </c>
-      <c r="C54">
-        <v>2.9000000000000001E-2</v>
       </c>
       <c r="D54">
         <v>-0.24</v>
@@ -20362,13 +20814,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="B55">
         <v>3.4</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>0.63100000000000001</v>
-      </c>
-      <c r="C55">
-        <v>2.9000000000000001E-2</v>
       </c>
       <c r="D55">
         <v>-0.22500000000000001</v>
@@ -20379,13 +20831,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="B56">
         <v>3.5</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>0.65</v>
-      </c>
-      <c r="C56">
-        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D56">
         <v>-0.20599999999999999</v>
@@ -20396,13 +20848,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="B57">
         <v>3.6</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>0.66900000000000004</v>
-      </c>
-      <c r="C57">
-        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D57">
         <v>-0.184</v>
@@ -20413,13 +20865,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
+        <v>2.7E-2</v>
+      </c>
+      <c r="B58">
         <v>3.7</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>0.68700000000000006</v>
-      </c>
-      <c r="C58">
-        <v>2.7E-2</v>
       </c>
       <c r="D58">
         <v>-0.158</v>
@@ -20430,13 +20882,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
+        <v>2.7E-2</v>
+      </c>
+      <c r="B59">
         <v>3.8</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>0.70599999999999996</v>
-      </c>
-      <c r="C59">
-        <v>2.7E-2</v>
       </c>
       <c r="D59">
         <v>-0.126</v>
@@ -20447,13 +20899,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
+        <v>2.7E-2</v>
+      </c>
+      <c r="B60">
         <v>3.9</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>0.72399999999999998</v>
-      </c>
-      <c r="C60">
-        <v>2.7E-2</v>
       </c>
       <c r="D60">
         <v>-8.6999999999999994E-2</v>
@@ -20464,13 +20916,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="B61">
         <v>4</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>0.74299999999999999</v>
-      </c>
-      <c r="C61">
-        <v>2.5999999999999999E-2</v>
       </c>
       <c r="D61">
         <v>-3.5999999999999997E-2</v>
@@ -20481,13 +20933,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="B62">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>0.76100000000000001</v>
-      </c>
-      <c r="C62">
-        <v>2.5999999999999999E-2</v>
       </c>
       <c r="D62">
         <v>3.1E-2</v>
@@ -20498,13 +20950,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
+        <v>2.7E-2</v>
+      </c>
+      <c r="B63">
         <v>4.2</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>0.78</v>
-      </c>
-      <c r="C63">
-        <v>2.7E-2</v>
       </c>
       <c r="D63">
         <v>0.128</v>
@@ -20515,13 +20967,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
+        <v>2.7E-2</v>
+      </c>
+      <c r="B64">
         <v>4.3</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>0.79900000000000004</v>
-      </c>
-      <c r="C64">
-        <v>2.7E-2</v>
       </c>
       <c r="D64">
         <v>0.28299999999999997</v>
@@ -20532,13 +20984,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
+        <v>2.7E-2</v>
+      </c>
+      <c r="B65">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>0.81699999999999995</v>
-      </c>
-      <c r="C65">
-        <v>2.7E-2</v>
       </c>
       <c r="D65">
         <v>0.71799999999999997</v>
@@ -20549,13 +21001,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="B66">
         <v>4.5</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>0.83599999999999997</v>
-      </c>
-      <c r="C66">
-        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D66" t="s">
         <v>215</v>
@@ -20566,7 +21018,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="H8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
